--- a/backend/data/odds/most_hits.xlsx
+++ b/backend/data/odds/most_hits.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8403595d4321e36a/Documents/Python/MLB/backend/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8403595d4321e36a/Documents/Python/MLB/backend/data/odds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="884" documentId="11_F25DC773A252ABDACC1048DB2919503A5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A19E2065-40F6-4933-A41D-B822C7C6859C}"/>
+  <xr:revisionPtr revIDLastSave="909" documentId="11_F25DC773A252ABDACC1048DB2919503A5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0C47858-CA7C-4642-922B-05FD71B95EF0}"/>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="260" windowWidth="15690" windowHeight="6910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="0" windowWidth="15690" windowHeight="6910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="37">
   <si>
     <t>visitor</t>
   </si>
@@ -464,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E261"/>
+  <dimension ref="A1:E277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="E262" sqref="E262"/>
+    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
+      <selection activeCell="G276" sqref="G276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4678,6 +4678,254 @@
         <v>-105</v>
       </c>
     </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A262" s="1">
+        <v>44684</v>
+      </c>
+      <c r="B262" t="s">
+        <v>9</v>
+      </c>
+      <c r="C262" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A263" s="1">
+        <v>44684</v>
+      </c>
+      <c r="B263" t="s">
+        <v>9</v>
+      </c>
+      <c r="C263" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A264" s="1">
+        <v>44684</v>
+      </c>
+      <c r="B264" t="s">
+        <v>11</v>
+      </c>
+      <c r="C264" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A265" s="1">
+        <v>44684</v>
+      </c>
+      <c r="B265" t="s">
+        <v>8</v>
+      </c>
+      <c r="C265" t="s">
+        <v>2</v>
+      </c>
+      <c r="D265">
+        <v>-160</v>
+      </c>
+      <c r="E265">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A266" s="1">
+        <v>44684</v>
+      </c>
+      <c r="B266" t="s">
+        <v>5</v>
+      </c>
+      <c r="C266" t="s">
+        <v>19</v>
+      </c>
+      <c r="D266">
+        <v>-125</v>
+      </c>
+      <c r="E266">
+        <v>-115</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A267" s="1">
+        <v>44684</v>
+      </c>
+      <c r="B267" t="s">
+        <v>21</v>
+      </c>
+      <c r="C267" t="s">
+        <v>18</v>
+      </c>
+      <c r="D267">
+        <v>-120</v>
+      </c>
+      <c r="E267">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A268" s="1">
+        <v>44684</v>
+      </c>
+      <c r="B268" t="s">
+        <v>29</v>
+      </c>
+      <c r="C268" t="s">
+        <v>22</v>
+      </c>
+      <c r="D268">
+        <v>135</v>
+      </c>
+      <c r="E268">
+        <v>-180</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A269" s="1">
+        <v>44684</v>
+      </c>
+      <c r="B269" t="s">
+        <v>32</v>
+      </c>
+      <c r="C269" t="s">
+        <v>25</v>
+      </c>
+      <c r="D269">
+        <v>-110</v>
+      </c>
+      <c r="E269">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A270" s="1">
+        <v>44684</v>
+      </c>
+      <c r="B270" t="s">
+        <v>15</v>
+      </c>
+      <c r="C270" t="s">
+        <v>31</v>
+      </c>
+      <c r="D270">
+        <v>105</v>
+      </c>
+      <c r="E270">
+        <v>-140</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A271" s="1">
+        <v>44684</v>
+      </c>
+      <c r="B271" t="s">
+        <v>28</v>
+      </c>
+      <c r="C271" t="s">
+        <v>14</v>
+      </c>
+      <c r="D271">
+        <v>-125</v>
+      </c>
+      <c r="E271">
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A272" s="1">
+        <v>44684</v>
+      </c>
+      <c r="B272" t="s">
+        <v>35</v>
+      </c>
+      <c r="C272" t="s">
+        <v>26</v>
+      </c>
+      <c r="D272">
+        <v>115</v>
+      </c>
+      <c r="E272">
+        <v>-155</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A273" s="1">
+        <v>44684</v>
+      </c>
+      <c r="B273" t="s">
+        <v>10</v>
+      </c>
+      <c r="C273" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A274" s="1">
+        <v>44684</v>
+      </c>
+      <c r="B274" t="s">
+        <v>24</v>
+      </c>
+      <c r="C274" t="s">
+        <v>27</v>
+      </c>
+      <c r="D274">
+        <v>-130</v>
+      </c>
+      <c r="E274">
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A275" s="1">
+        <v>44684</v>
+      </c>
+      <c r="B275" t="s">
+        <v>6</v>
+      </c>
+      <c r="C275" t="s">
+        <v>34</v>
+      </c>
+      <c r="D275">
+        <v>-125</v>
+      </c>
+      <c r="E275">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A276" s="1">
+        <v>44684</v>
+      </c>
+      <c r="B276" t="s">
+        <v>33</v>
+      </c>
+      <c r="C276" t="s">
+        <v>3</v>
+      </c>
+      <c r="D276">
+        <v>115</v>
+      </c>
+      <c r="E276">
+        <v>-155</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A277" s="1">
+        <v>44684</v>
+      </c>
+      <c r="B277" t="s">
+        <v>7</v>
+      </c>
+      <c r="C277" t="s">
+        <v>13</v>
+      </c>
+      <c r="D277">
+        <v>105</v>
+      </c>
+      <c r="E277">
+        <v>-140</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backend/data/odds/most_hits.xlsx
+++ b/backend/data/odds/most_hits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8403595d4321e36a/Documents/Python/MLB/backend/data/odds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="909" documentId="11_F25DC773A252ABDACC1048DB2919503A5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0C47858-CA7C-4642-922B-05FD71B95EF0}"/>
+  <xr:revisionPtr revIDLastSave="966" documentId="11_F25DC773A252ABDACC1048DB2919503A5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0AD9628-944A-47D3-936E-51CB46F49A48}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="0" windowWidth="15690" windowHeight="6910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3210" yWindow="200" windowWidth="15690" windowHeight="6910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="37">
   <si>
     <t>visitor</t>
   </si>
@@ -464,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E277"/>
+  <dimension ref="A1:E293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
-      <selection activeCell="G276" sqref="G276"/>
+    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
+      <selection activeCell="E292" sqref="E292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4926,6 +4926,248 @@
         <v>-140</v>
       </c>
     </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A278" s="1">
+        <v>44685</v>
+      </c>
+      <c r="B278" t="s">
+        <v>11</v>
+      </c>
+      <c r="C278" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A279" s="1">
+        <v>44685</v>
+      </c>
+      <c r="B279" t="s">
+        <v>9</v>
+      </c>
+      <c r="C279" t="s">
+        <v>4</v>
+      </c>
+      <c r="D279">
+        <v>-115</v>
+      </c>
+      <c r="E279">
+        <v>-115</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A280" s="1">
+        <v>44685</v>
+      </c>
+      <c r="B280" t="s">
+        <v>8</v>
+      </c>
+      <c r="C280" t="s">
+        <v>2</v>
+      </c>
+      <c r="D280">
+        <v>-180</v>
+      </c>
+      <c r="E280">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A281" s="1">
+        <v>44685</v>
+      </c>
+      <c r="B281" t="s">
+        <v>5</v>
+      </c>
+      <c r="C281" t="s">
+        <v>19</v>
+      </c>
+      <c r="D281">
+        <v>-130</v>
+      </c>
+      <c r="E281">
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A282" s="1">
+        <v>44685</v>
+      </c>
+      <c r="B282" t="s">
+        <v>28</v>
+      </c>
+      <c r="C282" t="s">
+        <v>14</v>
+      </c>
+      <c r="D282">
+        <v>-145</v>
+      </c>
+      <c r="E282">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A283" s="1">
+        <v>44685</v>
+      </c>
+      <c r="B283" t="s">
+        <v>35</v>
+      </c>
+      <c r="C283" t="s">
+        <v>26</v>
+      </c>
+      <c r="D283">
+        <v>110</v>
+      </c>
+      <c r="E283">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A284" s="1">
+        <v>44685</v>
+      </c>
+      <c r="B284" t="s">
+        <v>29</v>
+      </c>
+      <c r="C284" t="s">
+        <v>22</v>
+      </c>
+      <c r="D284">
+        <v>120</v>
+      </c>
+      <c r="E284">
+        <v>-160</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A285" s="1">
+        <v>44685</v>
+      </c>
+      <c r="B285" t="s">
+        <v>32</v>
+      </c>
+      <c r="C285" t="s">
+        <v>25</v>
+      </c>
+      <c r="D285">
+        <v>120</v>
+      </c>
+      <c r="E285">
+        <v>-160</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A286" s="1">
+        <v>44685</v>
+      </c>
+      <c r="B286" t="s">
+        <v>15</v>
+      </c>
+      <c r="C286" t="s">
+        <v>31</v>
+      </c>
+      <c r="D286">
+        <v>-120</v>
+      </c>
+      <c r="E286">
+        <v>-115</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A287" s="1">
+        <v>44685</v>
+      </c>
+      <c r="B287" t="s">
+        <v>6</v>
+      </c>
+      <c r="C287" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A288" s="1">
+        <v>44685</v>
+      </c>
+      <c r="B288" t="s">
+        <v>10</v>
+      </c>
+      <c r="C288" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A289" s="1">
+        <v>44685</v>
+      </c>
+      <c r="B289" t="s">
+        <v>24</v>
+      </c>
+      <c r="C289" t="s">
+        <v>27</v>
+      </c>
+      <c r="D289">
+        <v>-135</v>
+      </c>
+      <c r="E289">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A290" s="1">
+        <v>44685</v>
+      </c>
+      <c r="B290" t="s">
+        <v>7</v>
+      </c>
+      <c r="C290" t="s">
+        <v>13</v>
+      </c>
+      <c r="D290">
+        <v>115</v>
+      </c>
+      <c r="E290">
+        <v>-155</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A291" s="1">
+        <v>44685</v>
+      </c>
+      <c r="B291" t="s">
+        <v>33</v>
+      </c>
+      <c r="C291" t="s">
+        <v>3</v>
+      </c>
+      <c r="D291">
+        <v>120</v>
+      </c>
+      <c r="E291">
+        <v>-165</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A292" s="1">
+        <v>44685</v>
+      </c>
+      <c r="B292" t="s">
+        <v>6</v>
+      </c>
+      <c r="C292" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A293" s="1">
+        <v>44685</v>
+      </c>
+      <c r="B293" t="s">
+        <v>10</v>
+      </c>
+      <c r="C293" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backend/data/odds/most_hits.xlsx
+++ b/backend/data/odds/most_hits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8403595d4321e36a/Documents/Python/MLB/backend/data/odds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="966" documentId="11_F25DC773A252ABDACC1048DB2919503A5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0AD9628-944A-47D3-936E-51CB46F49A48}"/>
+  <xr:revisionPtr revIDLastSave="1277" documentId="11_F25DC773A252ABDACC1048DB2919503A5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99597D2C-CE75-4BE2-8CE9-63777BC20F0E}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="200" windowWidth="15690" windowHeight="6910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2460" yWindow="100" windowWidth="15690" windowHeight="6910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="37">
   <si>
     <t>visitor</t>
   </si>
@@ -464,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E293"/>
+  <dimension ref="A1:E383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
-      <selection activeCell="E292" sqref="E292"/>
+    <sheetView tabSelected="1" topLeftCell="A378" workbookViewId="0">
+      <selection activeCell="E384" sqref="E384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5168,6 +5168,1404 @@
         <v>36</v>
       </c>
     </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A294" s="1">
+        <v>44686</v>
+      </c>
+      <c r="B294" t="s">
+        <v>8</v>
+      </c>
+      <c r="C294" t="s">
+        <v>2</v>
+      </c>
+      <c r="D294">
+        <v>-165</v>
+      </c>
+      <c r="E294">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A295" s="1">
+        <v>44686</v>
+      </c>
+      <c r="B295" t="s">
+        <v>5</v>
+      </c>
+      <c r="C295" t="s">
+        <v>19</v>
+      </c>
+      <c r="D295">
+        <v>-120</v>
+      </c>
+      <c r="E295">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A296" s="1">
+        <v>44686</v>
+      </c>
+      <c r="B296" t="s">
+        <v>4</v>
+      </c>
+      <c r="C296" t="s">
+        <v>27</v>
+      </c>
+      <c r="D296">
+        <v>-130</v>
+      </c>
+      <c r="E296">
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A297" s="1">
+        <v>44686</v>
+      </c>
+      <c r="B297" t="s">
+        <v>20</v>
+      </c>
+      <c r="C297" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A298" s="1">
+        <v>44686</v>
+      </c>
+      <c r="B298" t="s">
+        <v>15</v>
+      </c>
+      <c r="C298" t="s">
+        <v>31</v>
+      </c>
+      <c r="D298">
+        <v>105</v>
+      </c>
+      <c r="E298">
+        <v>-145</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A299" s="1">
+        <v>44686</v>
+      </c>
+      <c r="B299" t="s">
+        <v>25</v>
+      </c>
+      <c r="C299" t="s">
+        <v>36</v>
+      </c>
+      <c r="D299">
+        <v>120</v>
+      </c>
+      <c r="E299">
+        <v>-165</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A300" s="1">
+        <v>44686</v>
+      </c>
+      <c r="B300" t="s">
+        <v>29</v>
+      </c>
+      <c r="C300" t="s">
+        <v>22</v>
+      </c>
+      <c r="D300">
+        <v>125</v>
+      </c>
+      <c r="E300">
+        <v>-165</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A301" s="1">
+        <v>44686</v>
+      </c>
+      <c r="B301" t="s">
+        <v>34</v>
+      </c>
+      <c r="C301" t="s">
+        <v>14</v>
+      </c>
+      <c r="D301">
+        <v>-125</v>
+      </c>
+      <c r="E301">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A302" s="1">
+        <v>44686</v>
+      </c>
+      <c r="B302" t="s">
+        <v>35</v>
+      </c>
+      <c r="C302" t="s">
+        <v>28</v>
+      </c>
+      <c r="D302">
+        <v>110</v>
+      </c>
+      <c r="E302">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A303" s="1">
+        <v>44687</v>
+      </c>
+      <c r="B303" t="s">
+        <v>6</v>
+      </c>
+      <c r="C303" t="s">
+        <v>8</v>
+      </c>
+      <c r="D303">
+        <v>105</v>
+      </c>
+      <c r="E303">
+        <v>-135</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A304" s="1">
+        <v>44687</v>
+      </c>
+      <c r="B304" t="s">
+        <v>2</v>
+      </c>
+      <c r="C304" t="s">
+        <v>9</v>
+      </c>
+      <c r="D304">
+        <v>105</v>
+      </c>
+      <c r="E304">
+        <v>-135</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A305" s="1">
+        <v>44687</v>
+      </c>
+      <c r="B305" t="s">
+        <v>19</v>
+      </c>
+      <c r="C305" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A306" s="1">
+        <v>44687</v>
+      </c>
+      <c r="B306" t="s">
+        <v>20</v>
+      </c>
+      <c r="C306" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A307" s="1">
+        <v>44687</v>
+      </c>
+      <c r="B307" t="s">
+        <v>7</v>
+      </c>
+      <c r="C307" t="s">
+        <v>21</v>
+      </c>
+      <c r="D307">
+        <v>-110</v>
+      </c>
+      <c r="E307">
+        <v>-125</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A308" s="1">
+        <v>44687</v>
+      </c>
+      <c r="B308" t="s">
+        <v>13</v>
+      </c>
+      <c r="C308" t="s">
+        <v>22</v>
+      </c>
+      <c r="D308">
+        <v>-115</v>
+      </c>
+      <c r="E308">
+        <v>-115</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A309" s="1">
+        <v>44687</v>
+      </c>
+      <c r="B309" t="s">
+        <v>33</v>
+      </c>
+      <c r="C309" t="s">
+        <v>31</v>
+      </c>
+      <c r="D309">
+        <v>-135</v>
+      </c>
+      <c r="E309">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A310" s="1">
+        <v>44687</v>
+      </c>
+      <c r="B310" t="s">
+        <v>25</v>
+      </c>
+      <c r="C310" t="s">
+        <v>36</v>
+      </c>
+      <c r="D310">
+        <v>125</v>
+      </c>
+      <c r="E310">
+        <v>-165</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A311" s="1">
+        <v>44687</v>
+      </c>
+      <c r="B311" t="s">
+        <v>34</v>
+      </c>
+      <c r="C311" t="s">
+        <v>14</v>
+      </c>
+      <c r="D311">
+        <v>-150</v>
+      </c>
+      <c r="E311">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A312" s="1">
+        <v>44687</v>
+      </c>
+      <c r="B312" t="s">
+        <v>26</v>
+      </c>
+      <c r="C312" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A313" s="1">
+        <v>44687</v>
+      </c>
+      <c r="B313" t="s">
+        <v>35</v>
+      </c>
+      <c r="C313" t="s">
+        <v>28</v>
+      </c>
+      <c r="D313">
+        <v>-115</v>
+      </c>
+      <c r="E313">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A314" s="1">
+        <v>44688</v>
+      </c>
+      <c r="B314" t="s">
+        <v>6</v>
+      </c>
+      <c r="C314" t="s">
+        <v>8</v>
+      </c>
+      <c r="D314">
+        <v>105</v>
+      </c>
+      <c r="E314">
+        <v>-135</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A315" s="1">
+        <v>44688</v>
+      </c>
+      <c r="B315" t="s">
+        <v>18</v>
+      </c>
+      <c r="C315" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A316" s="1">
+        <v>44688</v>
+      </c>
+      <c r="B316" t="s">
+        <v>4</v>
+      </c>
+      <c r="C316" t="s">
+        <v>27</v>
+      </c>
+      <c r="D316">
+        <v>125</v>
+      </c>
+      <c r="E316">
+        <v>-170</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A317" s="1">
+        <v>44688</v>
+      </c>
+      <c r="B317" t="s">
+        <v>6</v>
+      </c>
+      <c r="C317" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A318" s="1">
+        <v>44688</v>
+      </c>
+      <c r="B318" t="s">
+        <v>7</v>
+      </c>
+      <c r="C318" t="s">
+        <v>21</v>
+      </c>
+      <c r="D318">
+        <v>-110</v>
+      </c>
+      <c r="E318">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A319" s="1">
+        <v>44688</v>
+      </c>
+      <c r="B319" t="s">
+        <v>2</v>
+      </c>
+      <c r="C319" t="s">
+        <v>2</v>
+      </c>
+      <c r="D319">
+        <v>100</v>
+      </c>
+      <c r="E319">
+        <v>-135</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A320" s="1">
+        <v>44688</v>
+      </c>
+      <c r="B320" t="s">
+        <v>19</v>
+      </c>
+      <c r="C320" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A321" s="1">
+        <v>44688</v>
+      </c>
+      <c r="B321" t="s">
+        <v>20</v>
+      </c>
+      <c r="C321" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A322" s="1">
+        <v>44688</v>
+      </c>
+      <c r="B322" t="s">
+        <v>26</v>
+      </c>
+      <c r="C322" t="s">
+        <v>29</v>
+      </c>
+      <c r="D322">
+        <v>-150</v>
+      </c>
+      <c r="E322">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A323" s="1">
+        <v>44688</v>
+      </c>
+      <c r="B323" t="s">
+        <v>34</v>
+      </c>
+      <c r="C323" t="s">
+        <v>14</v>
+      </c>
+      <c r="D323">
+        <v>-150</v>
+      </c>
+      <c r="E323">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A324" s="1">
+        <v>44688</v>
+      </c>
+      <c r="B324" t="s">
+        <v>33</v>
+      </c>
+      <c r="C324" t="s">
+        <v>31</v>
+      </c>
+      <c r="D324">
+        <v>115</v>
+      </c>
+      <c r="E324">
+        <v>-155</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A325" s="1">
+        <v>44688</v>
+      </c>
+      <c r="B325" t="s">
+        <v>25</v>
+      </c>
+      <c r="C325" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A326" s="1">
+        <v>44688</v>
+      </c>
+      <c r="B326" t="s">
+        <v>13</v>
+      </c>
+      <c r="C326" t="s">
+        <v>22</v>
+      </c>
+      <c r="D326">
+        <v>-110</v>
+      </c>
+      <c r="E326">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A327" s="1">
+        <v>44688</v>
+      </c>
+      <c r="B327" t="s">
+        <v>35</v>
+      </c>
+      <c r="C327" t="s">
+        <v>28</v>
+      </c>
+      <c r="D327">
+        <v>115</v>
+      </c>
+      <c r="E327">
+        <v>-155</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A328" s="1">
+        <v>44688</v>
+      </c>
+      <c r="B328" t="s">
+        <v>5</v>
+      </c>
+      <c r="C328" t="s">
+        <v>15</v>
+      </c>
+      <c r="D328">
+        <v>-125</v>
+      </c>
+      <c r="E328">
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A329" s="1">
+        <v>44688</v>
+      </c>
+      <c r="B329" t="s">
+        <v>18</v>
+      </c>
+      <c r="C329" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A330" s="1">
+        <v>44688</v>
+      </c>
+      <c r="B330" t="s">
+        <v>25</v>
+      </c>
+      <c r="C330" t="s">
+        <v>36</v>
+      </c>
+      <c r="D330">
+        <v>125</v>
+      </c>
+      <c r="E330">
+        <v>-165</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A331" s="1">
+        <v>44689</v>
+      </c>
+      <c r="B331" t="s">
+        <v>2</v>
+      </c>
+      <c r="C331" t="s">
+        <v>9</v>
+      </c>
+      <c r="D331">
+        <v>-115</v>
+      </c>
+      <c r="E331">
+        <v>-115</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A332" s="1">
+        <v>44689</v>
+      </c>
+      <c r="B332" t="s">
+        <v>6</v>
+      </c>
+      <c r="C332" t="s">
+        <v>8</v>
+      </c>
+      <c r="D332">
+        <v>-120</v>
+      </c>
+      <c r="E332">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A333" s="1">
+        <v>44689</v>
+      </c>
+      <c r="B333" t="s">
+        <v>7</v>
+      </c>
+      <c r="C333" t="s">
+        <v>21</v>
+      </c>
+      <c r="D333">
+        <v>-115</v>
+      </c>
+      <c r="E333">
+        <v>-115</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A334" s="1">
+        <v>44689</v>
+      </c>
+      <c r="B334" t="s">
+        <v>19</v>
+      </c>
+      <c r="C334" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A335" s="1">
+        <v>44689</v>
+      </c>
+      <c r="B335" t="s">
+        <v>20</v>
+      </c>
+      <c r="C335" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A336" s="1">
+        <v>44689</v>
+      </c>
+      <c r="B336" t="s">
+        <v>18</v>
+      </c>
+      <c r="C336" t="s">
+        <v>3</v>
+      </c>
+      <c r="D336">
+        <v>145</v>
+      </c>
+      <c r="E336">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A337" s="1">
+        <v>44689</v>
+      </c>
+      <c r="B337" t="s">
+        <v>13</v>
+      </c>
+      <c r="C337" t="s">
+        <v>22</v>
+      </c>
+      <c r="D337">
+        <v>105</v>
+      </c>
+      <c r="E337">
+        <v>-140</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A338" s="1">
+        <v>44689</v>
+      </c>
+      <c r="B338" t="s">
+        <v>24</v>
+      </c>
+      <c r="C338" t="s">
+        <v>32</v>
+      </c>
+      <c r="D338">
+        <v>-160</v>
+      </c>
+      <c r="E338">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A339" s="1">
+        <v>44689</v>
+      </c>
+      <c r="B339" t="s">
+        <v>25</v>
+      </c>
+      <c r="C339" t="s">
+        <v>36</v>
+      </c>
+      <c r="D339">
+        <v>150</v>
+      </c>
+      <c r="E339">
+        <v>-205</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A340" s="1">
+        <v>44689</v>
+      </c>
+      <c r="B340" t="s">
+        <v>34</v>
+      </c>
+      <c r="C340" t="s">
+        <v>14</v>
+      </c>
+      <c r="D340">
+        <v>-140</v>
+      </c>
+      <c r="E340">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A341" s="1">
+        <v>44689</v>
+      </c>
+      <c r="B341" t="s">
+        <v>26</v>
+      </c>
+      <c r="C341" t="s">
+        <v>29</v>
+      </c>
+      <c r="D341">
+        <v>-135</v>
+      </c>
+      <c r="E341">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A342" s="1">
+        <v>44689</v>
+      </c>
+      <c r="B342" t="s">
+        <v>35</v>
+      </c>
+      <c r="C342" t="s">
+        <v>28</v>
+      </c>
+      <c r="D342">
+        <v>-110</v>
+      </c>
+      <c r="E342">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A343" s="1">
+        <v>44689</v>
+      </c>
+      <c r="B343" t="s">
+        <v>5</v>
+      </c>
+      <c r="C343" t="s">
+        <v>15</v>
+      </c>
+      <c r="D343">
+        <v>-155</v>
+      </c>
+      <c r="E343">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A344" s="1">
+        <v>44689</v>
+      </c>
+      <c r="B344" t="s">
+        <v>24</v>
+      </c>
+      <c r="C344" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A345" s="1">
+        <v>44689</v>
+      </c>
+      <c r="B345" t="s">
+        <v>13</v>
+      </c>
+      <c r="C345" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A346" s="1">
+        <v>44689</v>
+      </c>
+      <c r="B346" t="s">
+        <v>4</v>
+      </c>
+      <c r="C346" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A347" s="1">
+        <v>44690</v>
+      </c>
+      <c r="B347" t="s">
+        <v>18</v>
+      </c>
+      <c r="C347" t="s">
+        <v>6</v>
+      </c>
+      <c r="D347">
+        <v>175</v>
+      </c>
+      <c r="E347">
+        <v>-245</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A348" s="1">
+        <v>44690</v>
+      </c>
+      <c r="B348" t="s">
+        <v>2</v>
+      </c>
+      <c r="C348" t="s">
+        <v>8</v>
+      </c>
+      <c r="D348">
+        <v>125</v>
+      </c>
+      <c r="E348">
+        <v>-170</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A349" s="1">
+        <v>44690</v>
+      </c>
+      <c r="B349" t="s">
+        <v>20</v>
+      </c>
+      <c r="C349" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A350" s="1">
+        <v>44690</v>
+      </c>
+      <c r="B350" t="s">
+        <v>3</v>
+      </c>
+      <c r="C350" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A351" s="1">
+        <v>44690</v>
+      </c>
+      <c r="B351" t="s">
+        <v>19</v>
+      </c>
+      <c r="C351" t="s">
+        <v>21</v>
+      </c>
+      <c r="D351">
+        <v>-165</v>
+      </c>
+      <c r="E351">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A352" s="1">
+        <v>44690</v>
+      </c>
+      <c r="B352" t="s">
+        <v>26</v>
+      </c>
+      <c r="C352" t="s">
+        <v>34</v>
+      </c>
+      <c r="D352">
+        <v>-110</v>
+      </c>
+      <c r="E352">
+        <v>-125</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A353" s="1">
+        <v>44690</v>
+      </c>
+      <c r="B353" t="s">
+        <v>12</v>
+      </c>
+      <c r="C353" t="s">
+        <v>33</v>
+      </c>
+      <c r="D353">
+        <v>-140</v>
+      </c>
+      <c r="E353">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A354" s="1">
+        <v>44690</v>
+      </c>
+      <c r="B354" t="s">
+        <v>35</v>
+      </c>
+      <c r="C354" t="s">
+        <v>15</v>
+      </c>
+      <c r="D354">
+        <v>-115</v>
+      </c>
+      <c r="E354">
+        <v>-115</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A355" s="1">
+        <v>44690</v>
+      </c>
+      <c r="B355" t="s">
+        <v>27</v>
+      </c>
+      <c r="C355" t="s">
+        <v>28</v>
+      </c>
+      <c r="D355">
+        <v>-105</v>
+      </c>
+      <c r="E355">
+        <v>-125</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A356" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B356" t="s">
+        <v>18</v>
+      </c>
+      <c r="C356" t="s">
+        <v>6</v>
+      </c>
+      <c r="D356">
+        <v>165</v>
+      </c>
+      <c r="E356">
+        <v>-225</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A357" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B357" t="s">
+        <v>2</v>
+      </c>
+      <c r="C357" t="s">
+        <v>8</v>
+      </c>
+      <c r="D357">
+        <v>145</v>
+      </c>
+      <c r="E357">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A358" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B358" t="s">
+        <v>3</v>
+      </c>
+      <c r="C358" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A359" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B359" t="s">
+        <v>20</v>
+      </c>
+      <c r="C359" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A360" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B360" t="s">
+        <v>19</v>
+      </c>
+      <c r="C360" t="s">
+        <v>21</v>
+      </c>
+      <c r="D360">
+        <v>-150</v>
+      </c>
+      <c r="E360">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A361" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B361" t="s">
+        <v>34</v>
+      </c>
+      <c r="C361" t="s">
+        <v>26</v>
+      </c>
+      <c r="D361">
+        <v>-105</v>
+      </c>
+      <c r="E361">
+        <v>-130</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A362" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B362" t="s">
+        <v>26</v>
+      </c>
+      <c r="C362" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A363" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B363" t="s">
+        <v>25</v>
+      </c>
+      <c r="C363" t="s">
+        <v>32</v>
+      </c>
+      <c r="D363">
+        <v>-135</v>
+      </c>
+      <c r="E363">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A364" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B364" t="s">
+        <v>14</v>
+      </c>
+      <c r="C364" t="s">
+        <v>29</v>
+      </c>
+      <c r="D364">
+        <v>125</v>
+      </c>
+      <c r="E364">
+        <v>-165</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A365" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B365" t="s">
+        <v>13</v>
+      </c>
+      <c r="C365" t="s">
+        <v>24</v>
+      </c>
+      <c r="D365">
+        <v>-120</v>
+      </c>
+      <c r="E365">
+        <v>-115</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A366" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B366" t="s">
+        <v>12</v>
+      </c>
+      <c r="C366" t="s">
+        <v>33</v>
+      </c>
+      <c r="D366">
+        <v>-135</v>
+      </c>
+      <c r="E366">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A367" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B367" t="s">
+        <v>35</v>
+      </c>
+      <c r="C367" t="s">
+        <v>15</v>
+      </c>
+      <c r="D367">
+        <v>105</v>
+      </c>
+      <c r="E367">
+        <v>-135</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A368" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B368" t="s">
+        <v>31</v>
+      </c>
+      <c r="C368" t="s">
+        <v>9</v>
+      </c>
+      <c r="D368">
+        <v>-115</v>
+      </c>
+      <c r="E368">
+        <v>-115</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A369" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B369" t="s">
+        <v>27</v>
+      </c>
+      <c r="C369" t="s">
+        <v>28</v>
+      </c>
+      <c r="D369">
+        <v>110</v>
+      </c>
+      <c r="E369">
+        <v>-145</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A370" s="1">
+        <v>44692</v>
+      </c>
+      <c r="B370" t="s">
+        <v>18</v>
+      </c>
+      <c r="C370" t="s">
+        <v>6</v>
+      </c>
+      <c r="D370">
+        <v>150</v>
+      </c>
+      <c r="E370">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A371" s="1">
+        <v>44692</v>
+      </c>
+      <c r="B371" t="s">
+        <v>2</v>
+      </c>
+      <c r="C371" t="s">
+        <v>8</v>
+      </c>
+      <c r="D371">
+        <v>150</v>
+      </c>
+      <c r="E371">
+        <v>-205</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A372" s="1">
+        <v>44692</v>
+      </c>
+      <c r="B372" t="s">
+        <v>20</v>
+      </c>
+      <c r="C372" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A373" s="1">
+        <v>44692</v>
+      </c>
+      <c r="B373" t="s">
+        <v>19</v>
+      </c>
+      <c r="C373" t="s">
+        <v>21</v>
+      </c>
+      <c r="D373">
+        <v>-150</v>
+      </c>
+      <c r="E373">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A374" s="1">
+        <v>44692</v>
+      </c>
+      <c r="B374" t="s">
+        <v>3</v>
+      </c>
+      <c r="C374" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A375" s="1">
+        <v>44692</v>
+      </c>
+      <c r="B375" t="s">
+        <v>4</v>
+      </c>
+      <c r="C375" t="s">
+        <v>5</v>
+      </c>
+      <c r="D375">
+        <v>145</v>
+      </c>
+      <c r="E375">
+        <v>-195</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A376" s="1">
+        <v>44692</v>
+      </c>
+      <c r="B376" t="s">
+        <v>25</v>
+      </c>
+      <c r="C376" t="s">
+        <v>32</v>
+      </c>
+      <c r="D376">
+        <v>-115</v>
+      </c>
+      <c r="E376">
+        <v>-115</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A377" s="1">
+        <v>44692</v>
+      </c>
+      <c r="B377" t="s">
+        <v>12</v>
+      </c>
+      <c r="C377" t="s">
+        <v>33</v>
+      </c>
+      <c r="D377">
+        <v>-115</v>
+      </c>
+      <c r="E377">
+        <v>-115</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A378" s="1">
+        <v>44692</v>
+      </c>
+      <c r="B378" t="s">
+        <v>35</v>
+      </c>
+      <c r="C378" t="s">
+        <v>15</v>
+      </c>
+      <c r="D378">
+        <v>-115</v>
+      </c>
+      <c r="E378">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A379" s="1">
+        <v>44692</v>
+      </c>
+      <c r="B379" t="s">
+        <v>26</v>
+      </c>
+      <c r="C379" t="s">
+        <v>34</v>
+      </c>
+      <c r="D379">
+        <v>-110</v>
+      </c>
+      <c r="E379">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A380" s="1">
+        <v>44692</v>
+      </c>
+      <c r="B380" t="s">
+        <v>14</v>
+      </c>
+      <c r="C380" t="s">
+        <v>29</v>
+      </c>
+      <c r="D380">
+        <v>105</v>
+      </c>
+      <c r="E380">
+        <v>-140</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A381" s="1">
+        <v>44692</v>
+      </c>
+      <c r="B381" t="s">
+        <v>27</v>
+      </c>
+      <c r="C381" t="s">
+        <v>28</v>
+      </c>
+      <c r="D381">
+        <v>-120</v>
+      </c>
+      <c r="E381">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A382" s="1">
+        <v>44692</v>
+      </c>
+      <c r="B382" t="s">
+        <v>31</v>
+      </c>
+      <c r="C382" t="s">
+        <v>9</v>
+      </c>
+      <c r="D382">
+        <v>-110</v>
+      </c>
+      <c r="E382">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A383" s="1">
+        <v>44692</v>
+      </c>
+      <c r="B383" t="s">
+        <v>22</v>
+      </c>
+      <c r="C383" t="s">
+        <v>7</v>
+      </c>
+      <c r="D383">
+        <v>-155</v>
+      </c>
+      <c r="E383">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backend/data/odds/most_hits.xlsx
+++ b/backend/data/odds/most_hits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8403595d4321e36a/Documents/Python/MLB/backend/data/odds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1277" documentId="11_F25DC773A252ABDACC1048DB2919503A5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99597D2C-CE75-4BE2-8CE9-63777BC20F0E}"/>
+  <xr:revisionPtr revIDLastSave="1342" documentId="11_F25DC773A252ABDACC1048DB2919503A5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AF61277-884D-4F45-B5FE-2E918D3026A2}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="100" windowWidth="15690" windowHeight="6910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3850" yWindow="3510" windowWidth="15690" windowHeight="6910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="36">
   <si>
     <t>visitor</t>
   </si>
@@ -58,12 +58,6 @@
     <t>Pittsburgh Pirates</t>
   </si>
   <si>
-    <t>Saint Luis Cardinals</t>
-  </si>
-  <si>
-    <t>Cinncinatti Reds</t>
-  </si>
-  <si>
     <t>Atlanta Braves</t>
   </si>
   <si>
@@ -71,9 +65,6 @@
   </si>
   <si>
     <t>Arizona Diamondbacks</t>
-  </si>
-  <si>
-    <t>Clevevand Gaurdians</t>
   </si>
   <si>
     <t>Kansas City Royals</t>
@@ -118,9 +109,6 @@
     <t>Oakland Athletics</t>
   </si>
   <si>
-    <t>Philidelphia Phillies</t>
-  </si>
-  <si>
     <t>Seattle Mariners</t>
   </si>
   <si>
@@ -145,7 +133,16 @@
     <t>Tampa Bay Rays</t>
   </si>
   <si>
-    <t>Cleveland Gaurdians</t>
+    <t>Philadelphia Phillies</t>
+  </si>
+  <si>
+    <t>Cincinnati Reds</t>
+  </si>
+  <si>
+    <t>Cleveland Guardians</t>
+  </si>
+  <si>
+    <t>St. Louis Cardinals</t>
   </si>
 </sst>
 </file>
@@ -464,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E383"/>
+  <dimension ref="A1:E386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A378" workbookViewId="0">
-      <selection activeCell="E384" sqref="E384"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -477,7 +474,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -486,10 +483,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -534,7 +531,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D4">
         <v>-135</v>
@@ -548,10 +545,10 @@
         <v>44658</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>105</v>
@@ -565,10 +562,10 @@
         <v>44658</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6">
         <v>175</v>
@@ -582,10 +579,10 @@
         <v>44658</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>130</v>
@@ -599,10 +596,10 @@
         <v>44658</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D8">
         <v>-105</v>
@@ -616,10 +613,10 @@
         <v>44659</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D9">
         <v>150</v>
@@ -633,10 +630,10 @@
         <v>44659</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D10">
         <v>-120</v>
@@ -667,10 +664,10 @@
         <v>44659</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D12">
         <v>-145</v>
@@ -684,10 +681,10 @@
         <v>44659</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -695,10 +692,10 @@
         <v>44659</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D14">
         <v>-140</v>
@@ -712,10 +709,10 @@
         <v>44659</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D15">
         <v>-135</v>
@@ -729,10 +726,10 @@
         <v>44659</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D16">
         <v>-110</v>
@@ -746,10 +743,10 @@
         <v>44659</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D17">
         <v>-145</v>
@@ -763,10 +760,10 @@
         <v>44659</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D18">
         <v>-110</v>
@@ -783,7 +780,7 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D19">
         <v>-135</v>
@@ -814,10 +811,10 @@
         <v>44660</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D21">
         <v>-120</v>
@@ -848,10 +845,10 @@
         <v>44660</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D23">
         <v>-125</v>
@@ -865,10 +862,10 @@
         <v>44660</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D24">
         <v>110</v>
@@ -882,10 +879,10 @@
         <v>44660</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -893,10 +890,10 @@
         <v>44660</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D26">
         <v>-115</v>
@@ -910,10 +907,10 @@
         <v>44660</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D27">
         <v>-150</v>
@@ -927,10 +924,10 @@
         <v>44660</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D28">
         <v>-130</v>
@@ -944,10 +941,10 @@
         <v>44660</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D29">
         <v>-110</v>
@@ -961,10 +958,10 @@
         <v>44660</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D30">
         <v>105</v>
@@ -978,10 +975,10 @@
         <v>44660</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D31">
         <v>-150</v>
@@ -1012,10 +1009,10 @@
         <v>44661</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D33">
         <v>-140</v>
@@ -1032,7 +1029,7 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D34">
         <v>-150</v>
@@ -1063,10 +1060,10 @@
         <v>44661</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D36">
         <v>135</v>
@@ -1080,10 +1077,10 @@
         <v>44661</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D37">
         <v>-110</v>
@@ -1097,10 +1094,10 @@
         <v>44661</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
@@ -1108,10 +1105,10 @@
         <v>44661</v>
       </c>
       <c r="B39" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C39" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D39">
         <v>-145</v>
@@ -1125,10 +1122,10 @@
         <v>44661</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D40">
         <v>110</v>
@@ -1142,10 +1139,10 @@
         <v>44661</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D41">
         <v>-155</v>
@@ -1159,10 +1156,10 @@
         <v>44661</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D42">
         <v>-110</v>
@@ -1176,10 +1173,10 @@
         <v>44661</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D43">
         <v>-120</v>
@@ -1193,10 +1190,10 @@
         <v>44661</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D44">
         <v>-105</v>
@@ -1210,10 +1207,10 @@
         <v>44661</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C45" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D45">
         <v>-125</v>
@@ -1227,10 +1224,10 @@
         <v>44661</v>
       </c>
       <c r="B46" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D46">
         <v>-155</v>
@@ -1264,7 +1261,7 @@
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D48">
         <v>-125</v>
@@ -1278,10 +1275,10 @@
         <v>44663</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
@@ -1289,10 +1286,10 @@
         <v>44663</v>
       </c>
       <c r="B50" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C50" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D50">
         <v>105</v>
@@ -1306,10 +1303,10 @@
         <v>44663</v>
       </c>
       <c r="B51" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C51" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D51">
         <v>-115</v>
@@ -1323,10 +1320,10 @@
         <v>44663</v>
       </c>
       <c r="B52" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C52" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D52">
         <v>-155</v>
@@ -1340,10 +1337,10 @@
         <v>44663</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C53" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D53">
         <v>-115</v>
@@ -1357,10 +1354,10 @@
         <v>44663</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D54">
         <v>-105</v>
@@ -1374,10 +1371,10 @@
         <v>44663</v>
       </c>
       <c r="B55" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D55">
         <v>-125</v>
@@ -1391,10 +1388,10 @@
         <v>44663</v>
       </c>
       <c r="B56" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D56">
         <v>110</v>
@@ -1408,10 +1405,10 @@
         <v>44663</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D57">
         <v>-130</v>
@@ -1425,10 +1422,10 @@
         <v>44663</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D58">
         <v>-135</v>
@@ -1442,10 +1439,10 @@
         <v>44663</v>
       </c>
       <c r="B59" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
@@ -1453,7 +1450,7 @@
         <v>44665</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C60" t="s">
         <v>2</v>
@@ -1487,10 +1484,10 @@
         <v>44665</v>
       </c>
       <c r="B62" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C62" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D62">
         <v>-110</v>
@@ -1504,10 +1501,10 @@
         <v>44665</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
@@ -1518,7 +1515,7 @@
         <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D64">
         <v>-115</v>
@@ -1532,10 +1529,10 @@
         <v>44665</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C65" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D65">
         <v>-175</v>
@@ -1549,10 +1546,10 @@
         <v>44665</v>
       </c>
       <c r="B66" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
@@ -1560,10 +1557,10 @@
         <v>44665</v>
       </c>
       <c r="B67" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C67" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
@@ -1571,10 +1568,10 @@
         <v>44665</v>
       </c>
       <c r="B68" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C68" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D68">
         <v>-120</v>
@@ -1588,10 +1585,10 @@
         <v>44665</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D69">
         <v>120</v>
@@ -1605,10 +1602,10 @@
         <v>44665</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C70" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D70">
         <v>-115</v>
@@ -1622,7 +1619,7 @@
         <v>44666</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
         <v>4</v>
@@ -1650,10 +1647,10 @@
         <v>44666</v>
       </c>
       <c r="B73" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D73">
         <v>-110</v>
@@ -1667,7 +1664,7 @@
         <v>44666</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C74" t="s">
         <v>2</v>
@@ -1687,7 +1684,7 @@
         <v>3</v>
       </c>
       <c r="C75" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D75">
         <v>-110</v>
@@ -1701,10 +1698,10 @@
         <v>44666</v>
       </c>
       <c r="B76" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
@@ -1712,10 +1709,10 @@
         <v>44666</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C77" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D77">
         <v>-180</v>
@@ -1729,10 +1726,10 @@
         <v>44666</v>
       </c>
       <c r="B78" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C78" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D78">
         <v>-115</v>
@@ -1746,10 +1743,10 @@
         <v>44666</v>
       </c>
       <c r="B79" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C79" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D79">
         <v>150</v>
@@ -1763,10 +1760,10 @@
         <v>44666</v>
       </c>
       <c r="B80" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C80" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D80">
         <v>-140</v>
@@ -1780,10 +1777,10 @@
         <v>44666</v>
       </c>
       <c r="B81" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C81" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D81">
         <v>-115</v>
@@ -1797,10 +1794,10 @@
         <v>44666</v>
       </c>
       <c r="B82" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D82">
         <v>100</v>
@@ -1814,10 +1811,10 @@
         <v>44666</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C83" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D83">
         <v>-110</v>
@@ -1831,10 +1828,10 @@
         <v>44666</v>
       </c>
       <c r="B84" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C84" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D84">
         <v>105</v>
@@ -1848,10 +1845,10 @@
         <v>44666</v>
       </c>
       <c r="B85" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C85" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D85">
         <v>120</v>
@@ -1865,7 +1862,7 @@
         <v>44667</v>
       </c>
       <c r="B86" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
         <v>4</v>
@@ -1876,10 +1873,10 @@
         <v>44667</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
@@ -1887,10 +1884,10 @@
         <v>44667</v>
       </c>
       <c r="B88" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C88" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D88">
         <v>-105</v>
@@ -1921,7 +1918,7 @@
         <v>44667</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C90" t="s">
         <v>2</v>
@@ -1941,7 +1938,7 @@
         <v>3</v>
       </c>
       <c r="C91" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D91">
         <v>-120</v>
@@ -1955,10 +1952,10 @@
         <v>44667</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C92" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D92">
         <v>-155</v>
@@ -1972,10 +1969,10 @@
         <v>44667</v>
       </c>
       <c r="B93" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C93" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D93">
         <v>-115</v>
@@ -1989,10 +1986,10 @@
         <v>44667</v>
       </c>
       <c r="B94" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C94" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D94">
         <v>-160</v>
@@ -2006,10 +2003,10 @@
         <v>44667</v>
       </c>
       <c r="B95" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C95" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D95">
         <v>-115</v>
@@ -2023,10 +2020,10 @@
         <v>44667</v>
       </c>
       <c r="B96" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C96" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D96">
         <v>-110</v>
@@ -2040,10 +2037,10 @@
         <v>44667</v>
       </c>
       <c r="B97" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D97">
         <v>105</v>
@@ -2057,10 +2054,10 @@
         <v>44667</v>
       </c>
       <c r="B98" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C98" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D98">
         <v>135</v>
@@ -2074,10 +2071,10 @@
         <v>44667</v>
       </c>
       <c r="B99" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D99">
         <v>120</v>
@@ -2091,10 +2088,10 @@
         <v>44667</v>
       </c>
       <c r="B100" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C100" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D100">
         <v>-105</v>
@@ -2125,7 +2122,7 @@
         <v>44668</v>
       </c>
       <c r="B102" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
         <v>4</v>
@@ -2136,10 +2133,10 @@
         <v>44668</v>
       </c>
       <c r="B103" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C103" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D103">
         <v>120</v>
@@ -2153,7 +2150,7 @@
         <v>44668</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C104" t="s">
         <v>2</v>
@@ -2173,7 +2170,7 @@
         <v>3</v>
       </c>
       <c r="C105" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D105">
         <v>-120</v>
@@ -2187,10 +2184,10 @@
         <v>44668</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C106" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D106">
         <v>-155</v>
@@ -2204,10 +2201,10 @@
         <v>44668</v>
       </c>
       <c r="B107" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
@@ -2215,10 +2212,10 @@
         <v>44668</v>
       </c>
       <c r="B108" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C108" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D108">
         <v>145</v>
@@ -2232,10 +2229,10 @@
         <v>44668</v>
       </c>
       <c r="B109" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C109" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D109">
         <v>-115</v>
@@ -2249,10 +2246,10 @@
         <v>44668</v>
       </c>
       <c r="B110" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C110" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D110">
         <v>-175</v>
@@ -2266,10 +2263,10 @@
         <v>44668</v>
       </c>
       <c r="B111" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C111" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D111">
         <v>-115</v>
@@ -2283,10 +2280,10 @@
         <v>44668</v>
       </c>
       <c r="B112" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C112" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D112">
         <v>-105</v>
@@ -2300,10 +2297,10 @@
         <v>44668</v>
       </c>
       <c r="B113" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C113" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D113">
         <v>-105</v>
@@ -2317,10 +2314,10 @@
         <v>44668</v>
       </c>
       <c r="B114" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C114" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D114">
         <v>100</v>
@@ -2334,10 +2331,10 @@
         <v>44668</v>
       </c>
       <c r="B115" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C115" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D115">
         <v>110</v>
@@ -2351,7 +2348,7 @@
         <v>44669</v>
       </c>
       <c r="B116" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -2362,7 +2359,7 @@
         <v>44669</v>
       </c>
       <c r="B117" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C117" t="s">
         <v>4</v>
@@ -2396,10 +2393,10 @@
         <v>44669</v>
       </c>
       <c r="B119" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C119" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D119">
         <v>125</v>
@@ -2413,10 +2410,10 @@
         <v>44669</v>
       </c>
       <c r="B120" t="s">
+        <v>33</v>
+      </c>
+      <c r="C120" t="s">
         <v>8</v>
-      </c>
-      <c r="C120" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
@@ -2424,10 +2421,10 @@
         <v>44669</v>
       </c>
       <c r="B121" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D121">
         <v>-155</v>
@@ -2441,10 +2438,10 @@
         <v>44669</v>
       </c>
       <c r="B122" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C122" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D122">
         <v>-125</v>
@@ -2458,10 +2455,10 @@
         <v>44669</v>
       </c>
       <c r="B123" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C123" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D123">
         <v>-110</v>
@@ -2475,10 +2472,10 @@
         <v>44669</v>
       </c>
       <c r="B124" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C124" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D124">
         <v>-130</v>
@@ -2492,10 +2489,10 @@
         <v>44669</v>
       </c>
       <c r="B125" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C125" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D125">
         <v>-145</v>
@@ -2509,7 +2506,7 @@
         <v>44669</v>
       </c>
       <c r="B126" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C126" t="s">
         <v>3</v>
@@ -2526,10 +2523,10 @@
         <v>44670</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C127" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D127">
         <v>100</v>
@@ -2543,7 +2540,7 @@
         <v>44670</v>
       </c>
       <c r="B128" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C128" t="s">
         <v>4</v>
@@ -2571,10 +2568,10 @@
         <v>44670</v>
       </c>
       <c r="B130" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C130" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D130">
         <v>110</v>
@@ -2588,10 +2585,10 @@
         <v>44670</v>
       </c>
       <c r="B131" t="s">
+        <v>33</v>
+      </c>
+      <c r="C131" t="s">
         <v>8</v>
-      </c>
-      <c r="C131" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
@@ -2599,10 +2596,10 @@
         <v>44670</v>
       </c>
       <c r="B132" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D132">
         <v>-120</v>
@@ -2616,10 +2613,10 @@
         <v>44670</v>
       </c>
       <c r="B133" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C133" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D133">
         <v>-120</v>
@@ -2633,10 +2630,10 @@
         <v>44670</v>
       </c>
       <c r="B134" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C134" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D134">
         <v>160</v>
@@ -2650,10 +2647,10 @@
         <v>44670</v>
       </c>
       <c r="B135" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C135" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D135">
         <v>-120</v>
@@ -2667,10 +2664,10 @@
         <v>44670</v>
       </c>
       <c r="B136" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C136" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D136">
         <v>-125</v>
@@ -2684,10 +2681,10 @@
         <v>44670</v>
       </c>
       <c r="B137" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C137" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D137">
         <v>105</v>
@@ -2701,10 +2698,10 @@
         <v>44670</v>
       </c>
       <c r="B138" t="s">
+        <v>21</v>
+      </c>
+      <c r="C138" t="s">
         <v>24</v>
-      </c>
-      <c r="C138" t="s">
-        <v>28</v>
       </c>
       <c r="D138">
         <v>-115</v>
@@ -2718,7 +2715,7 @@
         <v>44670</v>
       </c>
       <c r="B139" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C139" t="s">
         <v>3</v>
@@ -2729,7 +2726,7 @@
         <v>44670</v>
       </c>
       <c r="B140" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C140" t="s">
         <v>4</v>
@@ -2740,7 +2737,7 @@
         <v>44672</v>
       </c>
       <c r="B141" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -2751,10 +2748,10 @@
         <v>44672</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C142" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D142">
         <v>-110</v>
@@ -2785,10 +2782,10 @@
         <v>44672</v>
       </c>
       <c r="B144" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C144" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D144">
         <v>-115</v>
@@ -2802,10 +2799,10 @@
         <v>44672</v>
       </c>
       <c r="B145" t="s">
+        <v>21</v>
+      </c>
+      <c r="C145" t="s">
         <v>24</v>
-      </c>
-      <c r="C145" t="s">
-        <v>28</v>
       </c>
       <c r="D145">
         <v>-115</v>
@@ -2836,10 +2833,10 @@
         <v>44673</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D147">
         <v>105</v>
@@ -2853,7 +2850,7 @@
         <v>44673</v>
       </c>
       <c r="B148" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -2873,7 +2870,7 @@
         <v>2</v>
       </c>
       <c r="C149" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D149">
         <v>-110</v>
@@ -2887,10 +2884,10 @@
         <v>44673</v>
       </c>
       <c r="B150" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D150">
         <v>-115</v>
@@ -2907,7 +2904,7 @@
         <v>4</v>
       </c>
       <c r="C151" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
@@ -2915,10 +2912,10 @@
         <v>44673</v>
       </c>
       <c r="B152" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C152" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
@@ -2926,10 +2923,10 @@
         <v>44673</v>
       </c>
       <c r="B153" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C153" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D153">
         <v>-150</v>
@@ -2943,10 +2940,10 @@
         <v>44673</v>
       </c>
       <c r="B154" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C154" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D154">
         <v>-125</v>
@@ -2960,10 +2957,10 @@
         <v>44673</v>
       </c>
       <c r="B155" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C155" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D155">
         <v>-135</v>
@@ -2977,10 +2974,10 @@
         <v>44673</v>
       </c>
       <c r="B156" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C156" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D156">
         <v>100</v>
@@ -2994,10 +2991,10 @@
         <v>44673</v>
       </c>
       <c r="B157" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C157" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D157">
         <v>-140</v>
@@ -3011,10 +3008,10 @@
         <v>44673</v>
       </c>
       <c r="B158" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C158" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D158">
         <v>-115</v>
@@ -3028,10 +3025,10 @@
         <v>44673</v>
       </c>
       <c r="B159" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C159" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D159">
         <v>115</v>
@@ -3045,10 +3042,10 @@
         <v>44673</v>
       </c>
       <c r="B160" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C160" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D160">
         <v>-120</v>
@@ -3082,7 +3079,7 @@
         <v>2</v>
       </c>
       <c r="C162" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D162">
         <v>-120</v>
@@ -3096,10 +3093,10 @@
         <v>44674</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D163">
         <v>-105</v>
@@ -3113,10 +3110,10 @@
         <v>44674</v>
       </c>
       <c r="B164" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D164">
         <v>-125</v>
@@ -3133,7 +3130,7 @@
         <v>4</v>
       </c>
       <c r="C165" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.35">
@@ -3141,10 +3138,10 @@
         <v>44674</v>
       </c>
       <c r="B166" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C166" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.35">
@@ -3152,10 +3149,10 @@
         <v>44674</v>
       </c>
       <c r="B167" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C167" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D167">
         <v>-125</v>
@@ -3169,10 +3166,10 @@
         <v>44674</v>
       </c>
       <c r="B168" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C168" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D168">
         <v>-115</v>
@@ -3186,10 +3183,10 @@
         <v>44674</v>
       </c>
       <c r="B169" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C169" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D169">
         <v>105</v>
@@ -3203,10 +3200,10 @@
         <v>44674</v>
       </c>
       <c r="B170" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C170" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D170">
         <v>-115</v>
@@ -3220,10 +3217,10 @@
         <v>44674</v>
       </c>
       <c r="B171" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C171" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D171">
         <v>-180</v>
@@ -3237,10 +3234,10 @@
         <v>44674</v>
       </c>
       <c r="B172" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C172" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D172">
         <v>-130</v>
@@ -3254,10 +3251,10 @@
         <v>44674</v>
       </c>
       <c r="B173" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C173" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.35">
@@ -3265,7 +3262,7 @@
         <v>44675</v>
       </c>
       <c r="B174" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -3282,10 +3279,10 @@
         <v>44675</v>
       </c>
       <c r="B175" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D175">
         <v>-115</v>
@@ -3299,10 +3296,10 @@
         <v>44675</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D176">
         <v>125</v>
@@ -3336,7 +3333,7 @@
         <v>4</v>
       </c>
       <c r="C178" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.35">
@@ -3344,10 +3341,10 @@
         <v>44675</v>
       </c>
       <c r="B179" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C179" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.35">
@@ -3358,7 +3355,7 @@
         <v>2</v>
       </c>
       <c r="C180" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D180">
         <v>-130</v>
@@ -3372,10 +3369,10 @@
         <v>44675</v>
       </c>
       <c r="B181" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C181" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D181">
         <v>-140</v>
@@ -3389,10 +3386,10 @@
         <v>44675</v>
       </c>
       <c r="B182" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C182" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D182">
         <v>-150</v>
@@ -3406,10 +3403,10 @@
         <v>44675</v>
       </c>
       <c r="B183" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C183" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D183">
         <v>-115</v>
@@ -3423,10 +3420,10 @@
         <v>44675</v>
       </c>
       <c r="B184" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C184" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D184">
         <v>105</v>
@@ -3440,10 +3437,10 @@
         <v>44675</v>
       </c>
       <c r="B185" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C185" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D185">
         <v>-150</v>
@@ -3457,10 +3454,10 @@
         <v>44675</v>
       </c>
       <c r="B186" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C186" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D186">
         <v>100</v>
@@ -3474,10 +3471,10 @@
         <v>44675</v>
       </c>
       <c r="B187" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C187" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D187">
         <v>-145</v>
@@ -3491,10 +3488,10 @@
         <v>44675</v>
       </c>
       <c r="B188" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C188" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D188">
         <v>-115</v>
@@ -3508,7 +3505,7 @@
         <v>44676</v>
       </c>
       <c r="B189" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C189" t="s">
         <v>2</v>
@@ -3525,10 +3522,10 @@
         <v>44676</v>
       </c>
       <c r="B190" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C190" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D190">
         <v>-145</v>
@@ -3545,7 +3542,7 @@
         <v>4</v>
       </c>
       <c r="C191" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D191">
         <v>135</v>
@@ -3559,10 +3556,10 @@
         <v>44676</v>
       </c>
       <c r="B192" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C192" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.35">
@@ -3570,10 +3567,10 @@
         <v>44676</v>
       </c>
       <c r="B193" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C193" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D193">
         <v>-115</v>
@@ -3587,10 +3584,10 @@
         <v>44676</v>
       </c>
       <c r="B194" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C194" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D194">
         <v>115</v>
@@ -3604,10 +3601,10 @@
         <v>44676</v>
       </c>
       <c r="B195" t="s">
+        <v>34</v>
+      </c>
+      <c r="C195" t="s">
         <v>12</v>
-      </c>
-      <c r="C195" t="s">
-        <v>15</v>
       </c>
       <c r="D195">
         <v>-110</v>
@@ -3638,10 +3635,10 @@
         <v>44677</v>
       </c>
       <c r="B197" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.35">
@@ -3649,10 +3646,10 @@
         <v>44677</v>
       </c>
       <c r="B198" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C198" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D198">
         <v>-125</v>
@@ -3666,7 +3663,7 @@
         <v>44677</v>
       </c>
       <c r="B199" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -3686,7 +3683,7 @@
         <v>3</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D200">
         <v>-130</v>
@@ -3703,7 +3700,7 @@
         <v>4</v>
       </c>
       <c r="C201" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D201">
         <v>110</v>
@@ -3717,10 +3714,10 @@
         <v>44677</v>
       </c>
       <c r="B202" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C202" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.35">
@@ -3728,10 +3725,10 @@
         <v>44677</v>
       </c>
       <c r="B203" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C203" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D203">
         <v>-110</v>
@@ -3745,10 +3742,10 @@
         <v>44677</v>
       </c>
       <c r="B204" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C204" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D204">
         <v>-175</v>
@@ -3762,10 +3759,10 @@
         <v>44677</v>
       </c>
       <c r="B205" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C205" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D205">
         <v>-145</v>
@@ -3779,10 +3776,10 @@
         <v>44677</v>
       </c>
       <c r="B206" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C206" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D206">
         <v>-125</v>
@@ -3796,10 +3793,10 @@
         <v>44677</v>
       </c>
       <c r="B207" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C207" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D207">
         <v>-115</v>
@@ -3813,10 +3810,10 @@
         <v>44677</v>
       </c>
       <c r="B208" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C208" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D208">
         <v>100</v>
@@ -3830,10 +3827,10 @@
         <v>44677</v>
       </c>
       <c r="B209" t="s">
+        <v>34</v>
+      </c>
+      <c r="C209" t="s">
         <v>12</v>
-      </c>
-      <c r="C209" t="s">
-        <v>15</v>
       </c>
       <c r="D209">
         <v>-125</v>
@@ -3847,10 +3844,10 @@
         <v>44677</v>
       </c>
       <c r="B210" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C210" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D210">
         <v>-175</v>
@@ -3867,7 +3864,7 @@
         <v>4</v>
       </c>
       <c r="C211" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D211">
         <v>110</v>
@@ -3881,10 +3878,10 @@
         <v>44678</v>
       </c>
       <c r="B212" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C212" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.35">
@@ -3903,10 +3900,10 @@
         <v>44678</v>
       </c>
       <c r="B214" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.35">
@@ -3914,10 +3911,10 @@
         <v>44678</v>
       </c>
       <c r="B215" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C215" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D215">
         <v>-150</v>
@@ -3931,7 +3928,7 @@
         <v>44678</v>
       </c>
       <c r="B216" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -3951,7 +3948,7 @@
         <v>3</v>
       </c>
       <c r="C217" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D217">
         <v>-145</v>
@@ -3965,10 +3962,10 @@
         <v>44678</v>
       </c>
       <c r="B218" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C218" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D218">
         <v>-120</v>
@@ -3982,10 +3979,10 @@
         <v>44678</v>
       </c>
       <c r="B219" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C219" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D219">
         <v>-170</v>
@@ -3999,10 +3996,10 @@
         <v>44678</v>
       </c>
       <c r="B220" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C220" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D220">
         <v>-120</v>
@@ -4016,10 +4013,10 @@
         <v>44678</v>
       </c>
       <c r="B221" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C221" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D221">
         <v>-150</v>
@@ -4033,10 +4030,10 @@
         <v>44678</v>
       </c>
       <c r="B222" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C222" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D222">
         <v>-145</v>
@@ -4050,10 +4047,10 @@
         <v>44678</v>
       </c>
       <c r="B223" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C223" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D223">
         <v>105</v>
@@ -4067,10 +4064,10 @@
         <v>44678</v>
       </c>
       <c r="B224" t="s">
+        <v>34</v>
+      </c>
+      <c r="C224" t="s">
         <v>12</v>
-      </c>
-      <c r="C224" t="s">
-        <v>15</v>
       </c>
       <c r="D224">
         <v>-150</v>
@@ -4084,10 +4081,10 @@
         <v>44678</v>
       </c>
       <c r="B225" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C225" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D225">
         <v>-135</v>
@@ -4101,10 +4098,10 @@
         <v>44679</v>
       </c>
       <c r="B226" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.35">
@@ -4129,10 +4126,10 @@
         <v>44679</v>
       </c>
       <c r="B228" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C228" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D228">
         <v>-150</v>
@@ -4146,7 +4143,7 @@
         <v>44679</v>
       </c>
       <c r="B229" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -4166,7 +4163,7 @@
         <v>3</v>
       </c>
       <c r="C230" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D230">
         <v>-150</v>
@@ -4180,10 +4177,10 @@
         <v>44679</v>
       </c>
       <c r="B231" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C231" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.35">
@@ -4191,10 +4188,10 @@
         <v>44679</v>
       </c>
       <c r="B232" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C232" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D232">
         <v>-160</v>
@@ -4208,10 +4205,10 @@
         <v>44679</v>
       </c>
       <c r="B233" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C233" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D233">
         <v>-125</v>
@@ -4225,10 +4222,10 @@
         <v>44679</v>
       </c>
       <c r="B234" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C234" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D234">
         <v>-115</v>
@@ -4242,10 +4239,10 @@
         <v>44679</v>
       </c>
       <c r="B235" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C235" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D235">
         <v>130</v>
@@ -4259,10 +4256,10 @@
         <v>44679</v>
       </c>
       <c r="B236" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C236" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D236">
         <v>-135</v>
@@ -4276,10 +4273,10 @@
         <v>44679</v>
       </c>
       <c r="B237" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C237" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D237">
         <v>-120</v>
@@ -4293,10 +4290,10 @@
         <v>44679</v>
       </c>
       <c r="B238" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C238" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D238">
         <v>-130</v>
@@ -4310,7 +4307,7 @@
         <v>44680</v>
       </c>
       <c r="B239" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
         <v>6</v>
@@ -4321,7 +4318,7 @@
         <v>44680</v>
       </c>
       <c r="B240" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C240" t="s">
         <v>4</v>
@@ -4355,10 +4352,10 @@
         <v>44680</v>
       </c>
       <c r="B242" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C242" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.35">
@@ -4366,10 +4363,10 @@
         <v>44680</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C243" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D243">
         <v>-110</v>
@@ -4386,7 +4383,7 @@
         <v>5</v>
       </c>
       <c r="C244" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D244">
         <v>-160</v>
@@ -4400,10 +4397,10 @@
         <v>44680</v>
       </c>
       <c r="B245" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C245" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D245">
         <v>110</v>
@@ -4417,10 +4414,10 @@
         <v>44680</v>
       </c>
       <c r="B246" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C246" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D246">
         <v>-110</v>
@@ -4434,10 +4431,10 @@
         <v>44680</v>
       </c>
       <c r="B247" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C247" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D247">
         <v>-115</v>
@@ -4451,10 +4448,10 @@
         <v>44680</v>
       </c>
       <c r="B248" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C248" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D248">
         <v>-115</v>
@@ -4468,10 +4465,10 @@
         <v>44680</v>
       </c>
       <c r="B249" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C249" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D249">
         <v>145</v>
@@ -4485,10 +4482,10 @@
         <v>44680</v>
       </c>
       <c r="B250" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C250" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D250">
         <v>-125</v>
@@ -4502,10 +4499,10 @@
         <v>44680</v>
       </c>
       <c r="B251" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C251" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D251">
         <v>100</v>
@@ -4519,10 +4516,10 @@
         <v>44680</v>
       </c>
       <c r="B252" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C252" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D252">
         <v>110</v>
@@ -4536,10 +4533,10 @@
         <v>44680</v>
       </c>
       <c r="B253" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C253" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D253">
         <v>-160</v>
@@ -4553,10 +4550,10 @@
         <v>44681</v>
       </c>
       <c r="B254" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C254" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.35">
@@ -4564,7 +4561,7 @@
         <v>44681</v>
       </c>
       <c r="B255" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
         <v>4</v>
@@ -4581,10 +4578,10 @@
         <v>44681</v>
       </c>
       <c r="B256" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C256" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D256">
         <v>-120</v>
@@ -4598,10 +4595,10 @@
         <v>44681</v>
       </c>
       <c r="B257" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C257" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D257">
         <v>120</v>
@@ -4615,10 +4612,10 @@
         <v>44681</v>
       </c>
       <c r="B258" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C258" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D258">
         <v>105</v>
@@ -4632,10 +4629,10 @@
         <v>44681</v>
       </c>
       <c r="B259" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C259" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D259">
         <v>-115</v>
@@ -4649,10 +4646,10 @@
         <v>44681</v>
       </c>
       <c r="B260" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C260" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D260">
         <v>130</v>
@@ -4666,10 +4663,10 @@
         <v>44681</v>
       </c>
       <c r="B261" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C261" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D261">
         <v>-130</v>
@@ -4683,7 +4680,7 @@
         <v>44684</v>
       </c>
       <c r="B262" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C262" t="s">
         <v>4</v>
@@ -4694,7 +4691,7 @@
         <v>44684</v>
       </c>
       <c r="B263" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C263" t="s">
         <v>4</v>
@@ -4705,10 +4702,10 @@
         <v>44684</v>
       </c>
       <c r="B264" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C264" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.35">
@@ -4716,7 +4713,7 @@
         <v>44684</v>
       </c>
       <c r="B265" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C265" t="s">
         <v>2</v>
@@ -4736,7 +4733,7 @@
         <v>5</v>
       </c>
       <c r="C266" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D266">
         <v>-125</v>
@@ -4750,10 +4747,10 @@
         <v>44684</v>
       </c>
       <c r="B267" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C267" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D267">
         <v>-120</v>
@@ -4767,10 +4764,10 @@
         <v>44684</v>
       </c>
       <c r="B268" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C268" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D268">
         <v>135</v>
@@ -4784,10 +4781,10 @@
         <v>44684</v>
       </c>
       <c r="B269" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C269" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D269">
         <v>-110</v>
@@ -4801,10 +4798,10 @@
         <v>44684</v>
       </c>
       <c r="B270" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C270" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D270">
         <v>105</v>
@@ -4818,10 +4815,10 @@
         <v>44684</v>
       </c>
       <c r="B271" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C271" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D271">
         <v>-125</v>
@@ -4835,10 +4832,10 @@
         <v>44684</v>
       </c>
       <c r="B272" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C272" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D272">
         <v>115</v>
@@ -4852,10 +4849,10 @@
         <v>44684</v>
       </c>
       <c r="B273" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C273" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.35">
@@ -4863,10 +4860,10 @@
         <v>44684</v>
       </c>
       <c r="B274" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C274" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D274">
         <v>-130</v>
@@ -4883,7 +4880,7 @@
         <v>6</v>
       </c>
       <c r="C275" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D275">
         <v>-125</v>
@@ -4897,7 +4894,7 @@
         <v>44684</v>
       </c>
       <c r="B276" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C276" t="s">
         <v>3</v>
@@ -4914,10 +4911,10 @@
         <v>44684</v>
       </c>
       <c r="B277" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C277" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D277">
         <v>105</v>
@@ -4931,10 +4928,10 @@
         <v>44685</v>
       </c>
       <c r="B278" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C278" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.35">
@@ -4942,7 +4939,7 @@
         <v>44685</v>
       </c>
       <c r="B279" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C279" t="s">
         <v>4</v>
@@ -4959,7 +4956,7 @@
         <v>44685</v>
       </c>
       <c r="B280" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C280" t="s">
         <v>2</v>
@@ -4979,7 +4976,7 @@
         <v>5</v>
       </c>
       <c r="C281" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D281">
         <v>-130</v>
@@ -4993,10 +4990,10 @@
         <v>44685</v>
       </c>
       <c r="B282" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C282" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D282">
         <v>-145</v>
@@ -5010,10 +5007,10 @@
         <v>44685</v>
       </c>
       <c r="B283" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C283" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D283">
         <v>110</v>
@@ -5027,10 +5024,10 @@
         <v>44685</v>
       </c>
       <c r="B284" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C284" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D284">
         <v>120</v>
@@ -5044,10 +5041,10 @@
         <v>44685</v>
       </c>
       <c r="B285" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C285" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D285">
         <v>120</v>
@@ -5061,10 +5058,10 @@
         <v>44685</v>
       </c>
       <c r="B286" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C286" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D286">
         <v>-120</v>
@@ -5081,7 +5078,7 @@
         <v>6</v>
       </c>
       <c r="C287" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.35">
@@ -5089,10 +5086,10 @@
         <v>44685</v>
       </c>
       <c r="B288" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C288" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.35">
@@ -5100,10 +5097,10 @@
         <v>44685</v>
       </c>
       <c r="B289" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C289" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D289">
         <v>-135</v>
@@ -5117,10 +5114,10 @@
         <v>44685</v>
       </c>
       <c r="B290" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C290" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D290">
         <v>115</v>
@@ -5134,7 +5131,7 @@
         <v>44685</v>
       </c>
       <c r="B291" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C291" t="s">
         <v>3</v>
@@ -5154,7 +5151,7 @@
         <v>6</v>
       </c>
       <c r="C292" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.35">
@@ -5162,10 +5159,10 @@
         <v>44685</v>
       </c>
       <c r="B293" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C293" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.35">
@@ -5173,7 +5170,7 @@
         <v>44686</v>
       </c>
       <c r="B294" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C294" t="s">
         <v>2</v>
@@ -5193,7 +5190,7 @@
         <v>5</v>
       </c>
       <c r="C295" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D295">
         <v>-120</v>
@@ -5210,7 +5207,7 @@
         <v>4</v>
       </c>
       <c r="C296" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D296">
         <v>-130</v>
@@ -5224,10 +5221,10 @@
         <v>44686</v>
       </c>
       <c r="B297" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C297" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.35">
@@ -5235,10 +5232,10 @@
         <v>44686</v>
       </c>
       <c r="B298" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C298" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D298">
         <v>105</v>
@@ -5252,10 +5249,10 @@
         <v>44686</v>
       </c>
       <c r="B299" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C299" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D299">
         <v>120</v>
@@ -5269,10 +5266,10 @@
         <v>44686</v>
       </c>
       <c r="B300" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C300" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D300">
         <v>125</v>
@@ -5286,10 +5283,10 @@
         <v>44686</v>
       </c>
       <c r="B301" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C301" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D301">
         <v>-125</v>
@@ -5303,10 +5300,10 @@
         <v>44686</v>
       </c>
       <c r="B302" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C302" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D302">
         <v>110</v>
@@ -5323,7 +5320,7 @@
         <v>6</v>
       </c>
       <c r="C303" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D303">
         <v>105</v>
@@ -5340,7 +5337,7 @@
         <v>2</v>
       </c>
       <c r="C304" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D304">
         <v>105</v>
@@ -5354,10 +5351,10 @@
         <v>44687</v>
       </c>
       <c r="B305" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C305" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.35">
@@ -5365,10 +5362,10 @@
         <v>44687</v>
       </c>
       <c r="B306" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C306" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.35">
@@ -5376,10 +5373,10 @@
         <v>44687</v>
       </c>
       <c r="B307" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C307" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D307">
         <v>-110</v>
@@ -5393,10 +5390,10 @@
         <v>44687</v>
       </c>
       <c r="B308" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C308" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D308">
         <v>-115</v>
@@ -5410,10 +5407,10 @@
         <v>44687</v>
       </c>
       <c r="B309" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C309" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D309">
         <v>-135</v>
@@ -5427,10 +5424,10 @@
         <v>44687</v>
       </c>
       <c r="B310" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C310" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D310">
         <v>125</v>
@@ -5444,10 +5441,10 @@
         <v>44687</v>
       </c>
       <c r="B311" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C311" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D311">
         <v>-150</v>
@@ -5461,10 +5458,10 @@
         <v>44687</v>
       </c>
       <c r="B312" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C312" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.35">
@@ -5472,10 +5469,10 @@
         <v>44687</v>
       </c>
       <c r="B313" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C313" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D313">
         <v>-115</v>
@@ -5492,7 +5489,7 @@
         <v>6</v>
       </c>
       <c r="C314" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D314">
         <v>105</v>
@@ -5506,7 +5503,7 @@
         <v>44688</v>
       </c>
       <c r="B315" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C315" t="s">
         <v>3</v>
@@ -5520,7 +5517,7 @@
         <v>4</v>
       </c>
       <c r="C316" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D316">
         <v>125</v>
@@ -5537,7 +5534,7 @@
         <v>6</v>
       </c>
       <c r="C317" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.35">
@@ -5545,10 +5542,10 @@
         <v>44688</v>
       </c>
       <c r="B318" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C318" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D318">
         <v>-110</v>
@@ -5579,10 +5576,10 @@
         <v>44688</v>
       </c>
       <c r="B320" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C320" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.35">
@@ -5590,10 +5587,10 @@
         <v>44688</v>
       </c>
       <c r="B321" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C321" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.35">
@@ -5601,10 +5598,10 @@
         <v>44688</v>
       </c>
       <c r="B322" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C322" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D322">
         <v>-150</v>
@@ -5618,10 +5615,10 @@
         <v>44688</v>
       </c>
       <c r="B323" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C323" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D323">
         <v>-150</v>
@@ -5635,10 +5632,10 @@
         <v>44688</v>
       </c>
       <c r="B324" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C324" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D324">
         <v>115</v>
@@ -5652,10 +5649,10 @@
         <v>44688</v>
       </c>
       <c r="B325" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C325" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.35">
@@ -5663,10 +5660,10 @@
         <v>44688</v>
       </c>
       <c r="B326" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C326" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D326">
         <v>-110</v>
@@ -5680,10 +5677,10 @@
         <v>44688</v>
       </c>
       <c r="B327" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C327" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D327">
         <v>115</v>
@@ -5700,7 +5697,7 @@
         <v>5</v>
       </c>
       <c r="C328" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D328">
         <v>-125</v>
@@ -5714,7 +5711,7 @@
         <v>44688</v>
       </c>
       <c r="B329" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C329" t="s">
         <v>3</v>
@@ -5725,10 +5722,10 @@
         <v>44688</v>
       </c>
       <c r="B330" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C330" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D330">
         <v>125</v>
@@ -5745,7 +5742,7 @@
         <v>2</v>
       </c>
       <c r="C331" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D331">
         <v>-115</v>
@@ -5762,7 +5759,7 @@
         <v>6</v>
       </c>
       <c r="C332" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D332">
         <v>-120</v>
@@ -5776,10 +5773,10 @@
         <v>44689</v>
       </c>
       <c r="B333" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C333" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D333">
         <v>-115</v>
@@ -5793,10 +5790,10 @@
         <v>44689</v>
       </c>
       <c r="B334" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C334" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.35">
@@ -5804,10 +5801,10 @@
         <v>44689</v>
       </c>
       <c r="B335" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C335" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.35">
@@ -5815,7 +5812,7 @@
         <v>44689</v>
       </c>
       <c r="B336" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C336" t="s">
         <v>3</v>
@@ -5832,10 +5829,10 @@
         <v>44689</v>
       </c>
       <c r="B337" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C337" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D337">
         <v>105</v>
@@ -5849,10 +5846,10 @@
         <v>44689</v>
       </c>
       <c r="B338" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C338" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D338">
         <v>-160</v>
@@ -5866,10 +5863,10 @@
         <v>44689</v>
       </c>
       <c r="B339" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C339" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D339">
         <v>150</v>
@@ -5883,10 +5880,10 @@
         <v>44689</v>
       </c>
       <c r="B340" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C340" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D340">
         <v>-140</v>
@@ -5900,10 +5897,10 @@
         <v>44689</v>
       </c>
       <c r="B341" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C341" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D341">
         <v>-135</v>
@@ -5917,10 +5914,10 @@
         <v>44689</v>
       </c>
       <c r="B342" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C342" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D342">
         <v>-110</v>
@@ -5937,7 +5934,7 @@
         <v>5</v>
       </c>
       <c r="C343" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D343">
         <v>-155</v>
@@ -5951,10 +5948,10 @@
         <v>44689</v>
       </c>
       <c r="B344" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C344" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.35">
@@ -5962,10 +5959,10 @@
         <v>44689</v>
       </c>
       <c r="B345" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C345" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.35">
@@ -5976,7 +5973,7 @@
         <v>4</v>
       </c>
       <c r="C346" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.35">
@@ -5984,7 +5981,7 @@
         <v>44690</v>
       </c>
       <c r="B347" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C347" t="s">
         <v>6</v>
@@ -6004,7 +6001,7 @@
         <v>2</v>
       </c>
       <c r="C348" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D348">
         <v>125</v>
@@ -6018,10 +6015,10 @@
         <v>44690</v>
       </c>
       <c r="B349" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C349" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.35">
@@ -6032,7 +6029,7 @@
         <v>3</v>
       </c>
       <c r="C350" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.35">
@@ -6040,10 +6037,10 @@
         <v>44690</v>
       </c>
       <c r="B351" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C351" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D351">
         <v>-165</v>
@@ -6057,10 +6054,10 @@
         <v>44690</v>
       </c>
       <c r="B352" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C352" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D352">
         <v>-110</v>
@@ -6074,10 +6071,10 @@
         <v>44690</v>
       </c>
       <c r="B353" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C353" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D353">
         <v>-140</v>
@@ -6091,10 +6088,10 @@
         <v>44690</v>
       </c>
       <c r="B354" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C354" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D354">
         <v>-115</v>
@@ -6108,10 +6105,10 @@
         <v>44690</v>
       </c>
       <c r="B355" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C355" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D355">
         <v>-105</v>
@@ -6125,7 +6122,7 @@
         <v>44691</v>
       </c>
       <c r="B356" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C356" t="s">
         <v>6</v>
@@ -6145,7 +6142,7 @@
         <v>2</v>
       </c>
       <c r="C357" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D357">
         <v>145</v>
@@ -6162,7 +6159,7 @@
         <v>3</v>
       </c>
       <c r="C358" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.35">
@@ -6170,10 +6167,10 @@
         <v>44691</v>
       </c>
       <c r="B359" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C359" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.35">
@@ -6181,10 +6178,10 @@
         <v>44691</v>
       </c>
       <c r="B360" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C360" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D360">
         <v>-150</v>
@@ -6198,10 +6195,10 @@
         <v>44691</v>
       </c>
       <c r="B361" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C361" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D361">
         <v>-105</v>
@@ -6215,10 +6212,10 @@
         <v>44691</v>
       </c>
       <c r="B362" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C362" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.35">
@@ -6226,10 +6223,10 @@
         <v>44691</v>
       </c>
       <c r="B363" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C363" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D363">
         <v>-135</v>
@@ -6243,10 +6240,10 @@
         <v>44691</v>
       </c>
       <c r="B364" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C364" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D364">
         <v>125</v>
@@ -6260,10 +6257,10 @@
         <v>44691</v>
       </c>
       <c r="B365" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C365" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D365">
         <v>-120</v>
@@ -6277,10 +6274,10 @@
         <v>44691</v>
       </c>
       <c r="B366" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C366" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D366">
         <v>-135</v>
@@ -6294,10 +6291,10 @@
         <v>44691</v>
       </c>
       <c r="B367" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C367" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D367">
         <v>105</v>
@@ -6311,10 +6308,10 @@
         <v>44691</v>
       </c>
       <c r="B368" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C368" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D368">
         <v>-115</v>
@@ -6328,10 +6325,10 @@
         <v>44691</v>
       </c>
       <c r="B369" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C369" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D369">
         <v>110</v>
@@ -6345,7 +6342,7 @@
         <v>44692</v>
       </c>
       <c r="B370" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C370" t="s">
         <v>6</v>
@@ -6365,7 +6362,7 @@
         <v>2</v>
       </c>
       <c r="C371" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D371">
         <v>150</v>
@@ -6379,10 +6376,10 @@
         <v>44692</v>
       </c>
       <c r="B372" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C372" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.35">
@@ -6390,10 +6387,10 @@
         <v>44692</v>
       </c>
       <c r="B373" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C373" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D373">
         <v>-150</v>
@@ -6410,7 +6407,7 @@
         <v>3</v>
       </c>
       <c r="C374" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.35">
@@ -6435,10 +6432,10 @@
         <v>44692</v>
       </c>
       <c r="B376" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C376" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D376">
         <v>-115</v>
@@ -6452,10 +6449,10 @@
         <v>44692</v>
       </c>
       <c r="B377" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C377" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D377">
         <v>-115</v>
@@ -6469,10 +6466,10 @@
         <v>44692</v>
       </c>
       <c r="B378" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C378" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D378">
         <v>-115</v>
@@ -6486,10 +6483,10 @@
         <v>44692</v>
       </c>
       <c r="B379" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C379" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D379">
         <v>-110</v>
@@ -6503,10 +6500,10 @@
         <v>44692</v>
       </c>
       <c r="B380" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C380" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D380">
         <v>105</v>
@@ -6520,10 +6517,10 @@
         <v>44692</v>
       </c>
       <c r="B381" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C381" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D381">
         <v>-120</v>
@@ -6537,10 +6534,10 @@
         <v>44692</v>
       </c>
       <c r="B382" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C382" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D382">
         <v>-110</v>
@@ -6554,16 +6551,67 @@
         <v>44692</v>
       </c>
       <c r="B383" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C383" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D383">
         <v>-155</v>
       </c>
       <c r="E383">
         <v>115</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A384" s="1">
+        <v>44693</v>
+      </c>
+      <c r="B384" t="s">
+        <v>32</v>
+      </c>
+      <c r="C384" t="s">
+        <v>15</v>
+      </c>
+      <c r="D384">
+        <v>-120</v>
+      </c>
+      <c r="E384">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A385" s="1">
+        <v>44693</v>
+      </c>
+      <c r="B385" t="s">
+        <v>10</v>
+      </c>
+      <c r="C385" t="s">
+        <v>21</v>
+      </c>
+      <c r="D385">
+        <v>-125</v>
+      </c>
+      <c r="E385">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A386" s="1">
+        <v>44693</v>
+      </c>
+      <c r="B386" t="s">
+        <v>28</v>
+      </c>
+      <c r="C386" t="s">
+        <v>29</v>
+      </c>
+      <c r="D386">
+        <v>-135</v>
+      </c>
+      <c r="E386">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/backend/data/odds/most_hits.xlsx
+++ b/backend/data/odds/most_hits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8403595d4321e36a/Documents/Python/MLB/backend/data/odds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1342" documentId="11_F25DC773A252ABDACC1048DB2919503A5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AF61277-884D-4F45-B5FE-2E918D3026A2}"/>
+  <xr:revisionPtr revIDLastSave="1370" documentId="11_F25DC773A252ABDACC1048DB2919503A5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2F76226-A915-4353-9888-E216DEA5333C}"/>
   <bookViews>
-    <workbookView xWindow="3850" yWindow="3510" windowWidth="15690" windowHeight="6910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14700" yWindow="9330" windowWidth="15690" windowHeight="6910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="35">
   <si>
     <t>visitor</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>Baltimore Orioles</t>
-  </si>
-  <si>
-    <t>Tamba Bay Rays</t>
   </si>
   <si>
     <t>Texas Rangers</t>
@@ -461,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E386"/>
+  <dimension ref="A1:E401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A396" workbookViewId="0">
+      <selection activeCell="F399" sqref="F399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -474,7 +471,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -531,7 +528,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4">
         <v>-135</v>
@@ -545,7 +542,7 @@
         <v>44658</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -579,7 +576,7 @@
         <v>44658</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -664,7 +661,7 @@
         <v>44659</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -695,7 +692,7 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D14">
         <v>-140</v>
@@ -709,10 +706,10 @@
         <v>44659</v>
       </c>
       <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
         <v>21</v>
-      </c>
-      <c r="C15" t="s">
-        <v>22</v>
       </c>
       <c r="D15">
         <v>-135</v>
@@ -743,10 +740,10 @@
         <v>44659</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17">
         <v>-145</v>
@@ -760,10 +757,10 @@
         <v>44659</v>
       </c>
       <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
         <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
       </c>
       <c r="D18">
         <v>-110</v>
@@ -780,7 +777,7 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19">
         <v>-135</v>
@@ -845,7 +842,7 @@
         <v>44660</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
@@ -890,10 +887,10 @@
         <v>44660</v>
       </c>
       <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
         <v>24</v>
-      </c>
-      <c r="C26" t="s">
-        <v>25</v>
       </c>
       <c r="D26">
         <v>-115</v>
@@ -907,10 +904,10 @@
         <v>44660</v>
       </c>
       <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s">
         <v>21</v>
-      </c>
-      <c r="C27" t="s">
-        <v>22</v>
       </c>
       <c r="D27">
         <v>-150</v>
@@ -924,10 +921,10 @@
         <v>44660</v>
       </c>
       <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
         <v>27</v>
-      </c>
-      <c r="C28" t="s">
-        <v>28</v>
       </c>
       <c r="D28">
         <v>-130</v>
@@ -941,7 +938,7 @@
         <v>44660</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
@@ -975,10 +972,10 @@
         <v>44660</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D31">
         <v>-150</v>
@@ -1009,7 +1006,7 @@
         <v>44661</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
@@ -1029,7 +1026,7 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34">
         <v>-150</v>
@@ -1108,7 +1105,7 @@
         <v>19</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D39">
         <v>-145</v>
@@ -1122,10 +1119,10 @@
         <v>44661</v>
       </c>
       <c r="B40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" t="s">
         <v>29</v>
-      </c>
-      <c r="C40" t="s">
-        <v>30</v>
       </c>
       <c r="D40">
         <v>110</v>
@@ -1139,10 +1136,10 @@
         <v>44661</v>
       </c>
       <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" t="s">
         <v>21</v>
-      </c>
-      <c r="C41" t="s">
-        <v>22</v>
       </c>
       <c r="D41">
         <v>-155</v>
@@ -1156,7 +1153,7 @@
         <v>44661</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
@@ -1173,10 +1170,10 @@
         <v>44661</v>
       </c>
       <c r="B43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" t="s">
         <v>24</v>
-      </c>
-      <c r="C43" t="s">
-        <v>25</v>
       </c>
       <c r="D43">
         <v>-120</v>
@@ -1207,10 +1204,10 @@
         <v>44661</v>
       </c>
       <c r="B45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" t="s">
         <v>27</v>
-      </c>
-      <c r="C45" t="s">
-        <v>28</v>
       </c>
       <c r="D45">
         <v>-125</v>
@@ -1224,10 +1221,10 @@
         <v>44661</v>
       </c>
       <c r="B46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D46">
         <v>-155</v>
@@ -1261,7 +1258,7 @@
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D48">
         <v>-125</v>
@@ -1286,10 +1283,10 @@
         <v>44663</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D50">
         <v>105</v>
@@ -1303,10 +1300,10 @@
         <v>44663</v>
       </c>
       <c r="B51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D51">
         <v>-115</v>
@@ -1320,10 +1317,10 @@
         <v>44663</v>
       </c>
       <c r="B52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D52">
         <v>-155</v>
@@ -1337,10 +1334,10 @@
         <v>44663</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D53">
         <v>-115</v>
@@ -1354,10 +1351,10 @@
         <v>44663</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D54">
         <v>-105</v>
@@ -1391,7 +1388,7 @@
         <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D56">
         <v>110</v>
@@ -1408,7 +1405,7 @@
         <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D57">
         <v>-130</v>
@@ -1425,7 +1422,7 @@
         <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D58">
         <v>-135</v>
@@ -1450,7 +1447,7 @@
         <v>44665</v>
       </c>
       <c r="B60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C60" t="s">
         <v>2</v>
@@ -1484,7 +1481,7 @@
         <v>44665</v>
       </c>
       <c r="B62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C62" t="s">
         <v>17</v>
@@ -1529,7 +1526,7 @@
         <v>44665</v>
       </c>
       <c r="B65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C65" t="s">
         <v>15</v>
@@ -1546,10 +1543,10 @@
         <v>44665</v>
       </c>
       <c r="B66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C66" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
@@ -1557,10 +1554,10 @@
         <v>44665</v>
       </c>
       <c r="B67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
@@ -1568,10 +1565,10 @@
         <v>44665</v>
       </c>
       <c r="B68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D68">
         <v>-120</v>
@@ -1588,7 +1585,7 @@
         <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D69">
         <v>120</v>
@@ -1602,7 +1599,7 @@
         <v>44665</v>
       </c>
       <c r="B70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C70" t="s">
         <v>10</v>
@@ -1647,7 +1644,7 @@
         <v>44666</v>
       </c>
       <c r="B73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C73" t="s">
         <v>17</v>
@@ -1664,7 +1661,7 @@
         <v>44666</v>
       </c>
       <c r="B74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C74" t="s">
         <v>2</v>
@@ -1709,7 +1706,7 @@
         <v>44666</v>
       </c>
       <c r="B77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C77" t="s">
         <v>15</v>
@@ -1726,10 +1723,10 @@
         <v>44666</v>
       </c>
       <c r="B78" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D78">
         <v>-115</v>
@@ -1743,7 +1740,7 @@
         <v>44666</v>
       </c>
       <c r="B79" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C79" t="s">
         <v>19</v>
@@ -1760,10 +1757,10 @@
         <v>44666</v>
       </c>
       <c r="B80" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C80" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D80">
         <v>-140</v>
@@ -1777,10 +1774,10 @@
         <v>44666</v>
       </c>
       <c r="B81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D81">
         <v>-115</v>
@@ -1797,7 +1794,7 @@
         <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D82">
         <v>100</v>
@@ -1811,7 +1808,7 @@
         <v>44666</v>
       </c>
       <c r="B83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C83" t="s">
         <v>10</v>
@@ -1831,7 +1828,7 @@
         <v>11</v>
       </c>
       <c r="C84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D84">
         <v>105</v>
@@ -1848,7 +1845,7 @@
         <v>18</v>
       </c>
       <c r="C85" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D85">
         <v>120</v>
@@ -1884,7 +1881,7 @@
         <v>44667</v>
       </c>
       <c r="B88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C88" t="s">
         <v>17</v>
@@ -1918,7 +1915,7 @@
         <v>44667</v>
       </c>
       <c r="B90" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C90" t="s">
         <v>2</v>
@@ -1952,7 +1949,7 @@
         <v>44667</v>
       </c>
       <c r="B92" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C92" t="s">
         <v>15</v>
@@ -1969,10 +1966,10 @@
         <v>44667</v>
       </c>
       <c r="B93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C93" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D93">
         <v>-115</v>
@@ -1986,10 +1983,10 @@
         <v>44667</v>
       </c>
       <c r="B94" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C94" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D94">
         <v>-160</v>
@@ -2003,10 +2000,10 @@
         <v>44667</v>
       </c>
       <c r="B95" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D95">
         <v>-115</v>
@@ -2020,7 +2017,7 @@
         <v>44667</v>
       </c>
       <c r="B96" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C96" t="s">
         <v>10</v>
@@ -2040,7 +2037,7 @@
         <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D97">
         <v>105</v>
@@ -2054,7 +2051,7 @@
         <v>44667</v>
       </c>
       <c r="B98" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C98" t="s">
         <v>19</v>
@@ -2074,7 +2071,7 @@
         <v>11</v>
       </c>
       <c r="C99" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D99">
         <v>120</v>
@@ -2091,7 +2088,7 @@
         <v>18</v>
       </c>
       <c r="C100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D100">
         <v>-105</v>
@@ -2133,7 +2130,7 @@
         <v>44668</v>
       </c>
       <c r="B103" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C103" t="s">
         <v>17</v>
@@ -2150,7 +2147,7 @@
         <v>44668</v>
       </c>
       <c r="B104" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C104" t="s">
         <v>2</v>
@@ -2184,7 +2181,7 @@
         <v>44668</v>
       </c>
       <c r="B106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C106" t="s">
         <v>15</v>
@@ -2212,7 +2209,7 @@
         <v>44668</v>
       </c>
       <c r="B108" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C108" t="s">
         <v>19</v>
@@ -2229,10 +2226,10 @@
         <v>44668</v>
       </c>
       <c r="B109" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D109">
         <v>-115</v>
@@ -2246,10 +2243,10 @@
         <v>44668</v>
       </c>
       <c r="B110" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C110" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D110">
         <v>-175</v>
@@ -2263,7 +2260,7 @@
         <v>44668</v>
       </c>
       <c r="B111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C111" t="s">
         <v>10</v>
@@ -2280,10 +2277,10 @@
         <v>44668</v>
       </c>
       <c r="B112" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C112" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D112">
         <v>-105</v>
@@ -2300,7 +2297,7 @@
         <v>12</v>
       </c>
       <c r="C113" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D113">
         <v>-105</v>
@@ -2317,7 +2314,7 @@
         <v>11</v>
       </c>
       <c r="C114" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D114">
         <v>100</v>
@@ -2334,7 +2331,7 @@
         <v>18</v>
       </c>
       <c r="C115" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D115">
         <v>110</v>
@@ -2393,7 +2390,7 @@
         <v>44669</v>
       </c>
       <c r="B119" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C119" t="s">
         <v>16</v>
@@ -2410,7 +2407,7 @@
         <v>44669</v>
       </c>
       <c r="B120" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C120" t="s">
         <v>8</v>
@@ -2438,10 +2435,10 @@
         <v>44669</v>
       </c>
       <c r="B122" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C122" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D122">
         <v>-125</v>
@@ -2455,10 +2452,10 @@
         <v>44669</v>
       </c>
       <c r="B123" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C123" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D123">
         <v>-110</v>
@@ -2492,7 +2489,7 @@
         <v>19</v>
       </c>
       <c r="C125" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D125">
         <v>-145</v>
@@ -2506,7 +2503,7 @@
         <v>44669</v>
       </c>
       <c r="B126" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C126" t="s">
         <v>3</v>
@@ -2523,7 +2520,7 @@
         <v>44670</v>
       </c>
       <c r="B127" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C127" t="s">
         <v>17</v>
@@ -2568,7 +2565,7 @@
         <v>44670</v>
       </c>
       <c r="B130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C130" t="s">
         <v>16</v>
@@ -2585,7 +2582,7 @@
         <v>44670</v>
       </c>
       <c r="B131" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C131" t="s">
         <v>8</v>
@@ -2613,10 +2610,10 @@
         <v>44670</v>
       </c>
       <c r="B133" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C133" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D133">
         <v>-120</v>
@@ -2630,10 +2627,10 @@
         <v>44670</v>
       </c>
       <c r="B134" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C134" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D134">
         <v>160</v>
@@ -2647,10 +2644,10 @@
         <v>44670</v>
       </c>
       <c r="B135" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C135" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D135">
         <v>-120</v>
@@ -2681,7 +2678,7 @@
         <v>44670</v>
       </c>
       <c r="B137" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C137" t="s">
         <v>10</v>
@@ -2698,10 +2695,10 @@
         <v>44670</v>
       </c>
       <c r="B138" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C138" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D138">
         <v>-115</v>
@@ -2715,7 +2712,7 @@
         <v>44670</v>
       </c>
       <c r="B139" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C139" t="s">
         <v>3</v>
@@ -2748,7 +2745,7 @@
         <v>44672</v>
       </c>
       <c r="B142" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C142" t="s">
         <v>17</v>
@@ -2785,7 +2782,7 @@
         <v>19</v>
       </c>
       <c r="C144" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D144">
         <v>-115</v>
@@ -2799,10 +2796,10 @@
         <v>44672</v>
       </c>
       <c r="B145" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C145" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D145">
         <v>-115</v>
@@ -2833,10 +2830,10 @@
         <v>44673</v>
       </c>
       <c r="B147" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C147" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D147">
         <v>105</v>
@@ -2870,7 +2867,7 @@
         <v>2</v>
       </c>
       <c r="C149" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D149">
         <v>-110</v>
@@ -2923,10 +2920,10 @@
         <v>44673</v>
       </c>
       <c r="B153" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C153" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D153">
         <v>-150</v>
@@ -2940,10 +2937,10 @@
         <v>44673</v>
       </c>
       <c r="B154" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C154" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D154">
         <v>-125</v>
@@ -2957,7 +2954,7 @@
         <v>44673</v>
       </c>
       <c r="B155" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C155" t="s">
         <v>11</v>
@@ -2974,10 +2971,10 @@
         <v>44673</v>
       </c>
       <c r="B156" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C156" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D156">
         <v>100</v>
@@ -3011,7 +3008,7 @@
         <v>10</v>
       </c>
       <c r="C158" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D158">
         <v>-115</v>
@@ -3025,10 +3022,10 @@
         <v>44673</v>
       </c>
       <c r="B159" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C159" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D159">
         <v>115</v>
@@ -3045,7 +3042,7 @@
         <v>16</v>
       </c>
       <c r="C160" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D160">
         <v>-120</v>
@@ -3079,7 +3076,7 @@
         <v>2</v>
       </c>
       <c r="C162" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D162">
         <v>-120</v>
@@ -3093,10 +3090,10 @@
         <v>44674</v>
       </c>
       <c r="B163" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C163" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D163">
         <v>-105</v>
@@ -3149,10 +3146,10 @@
         <v>44674</v>
       </c>
       <c r="B167" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C167" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D167">
         <v>-125</v>
@@ -3166,10 +3163,10 @@
         <v>44674</v>
       </c>
       <c r="B168" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C168" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D168">
         <v>-115</v>
@@ -3183,7 +3180,7 @@
         <v>44674</v>
       </c>
       <c r="B169" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C169" t="s">
         <v>11</v>
@@ -3200,10 +3197,10 @@
         <v>44674</v>
       </c>
       <c r="B170" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C170" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D170">
         <v>-115</v>
@@ -3237,7 +3234,7 @@
         <v>10</v>
       </c>
       <c r="C172" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D172">
         <v>-130</v>
@@ -3254,7 +3251,7 @@
         <v>16</v>
       </c>
       <c r="C173" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.35">
@@ -3296,10 +3293,10 @@
         <v>44675</v>
       </c>
       <c r="B176" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C176" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D176">
         <v>125</v>
@@ -3355,7 +3352,7 @@
         <v>2</v>
       </c>
       <c r="C180" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D180">
         <v>-130</v>
@@ -3369,10 +3366,10 @@
         <v>44675</v>
       </c>
       <c r="B181" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C181" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D181">
         <v>-140</v>
@@ -3386,10 +3383,10 @@
         <v>44675</v>
       </c>
       <c r="B182" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C182" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D182">
         <v>-150</v>
@@ -3403,7 +3400,7 @@
         <v>44675</v>
       </c>
       <c r="B183" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C183" t="s">
         <v>11</v>
@@ -3420,10 +3417,10 @@
         <v>44675</v>
       </c>
       <c r="B184" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C184" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D184">
         <v>105</v>
@@ -3454,10 +3451,10 @@
         <v>44675</v>
       </c>
       <c r="B186" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C186" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D186">
         <v>100</v>
@@ -3474,7 +3471,7 @@
         <v>10</v>
       </c>
       <c r="C187" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D187">
         <v>-145</v>
@@ -3491,7 +3488,7 @@
         <v>16</v>
       </c>
       <c r="C188" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D188">
         <v>-115</v>
@@ -3525,7 +3522,7 @@
         <v>16</v>
       </c>
       <c r="C190" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D190">
         <v>-145</v>
@@ -3542,7 +3539,7 @@
         <v>4</v>
       </c>
       <c r="C191" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D191">
         <v>135</v>
@@ -3567,10 +3564,10 @@
         <v>44676</v>
       </c>
       <c r="B193" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C193" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D193">
         <v>-115</v>
@@ -3587,7 +3584,7 @@
         <v>11</v>
       </c>
       <c r="C194" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D194">
         <v>115</v>
@@ -3601,7 +3598,7 @@
         <v>44676</v>
       </c>
       <c r="B195" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C195" t="s">
         <v>12</v>
@@ -3638,7 +3635,7 @@
         <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.35">
@@ -3649,7 +3646,7 @@
         <v>16</v>
       </c>
       <c r="C198" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D198">
         <v>-125</v>
@@ -3700,7 +3697,7 @@
         <v>4</v>
       </c>
       <c r="C201" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D201">
         <v>110</v>
@@ -3725,10 +3722,10 @@
         <v>44677</v>
       </c>
       <c r="B203" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C203" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D203">
         <v>-110</v>
@@ -3745,7 +3742,7 @@
         <v>19</v>
       </c>
       <c r="C204" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D204">
         <v>-175</v>
@@ -3759,10 +3756,10 @@
         <v>44677</v>
       </c>
       <c r="B205" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C205" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D205">
         <v>-145</v>
@@ -3779,7 +3776,7 @@
         <v>10</v>
       </c>
       <c r="C206" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D206">
         <v>-125</v>
@@ -3793,10 +3790,10 @@
         <v>44677</v>
       </c>
       <c r="B207" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C207" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D207">
         <v>-115</v>
@@ -3813,7 +3810,7 @@
         <v>11</v>
       </c>
       <c r="C208" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D208">
         <v>100</v>
@@ -3827,7 +3824,7 @@
         <v>44677</v>
       </c>
       <c r="B209" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C209" t="s">
         <v>12</v>
@@ -3844,7 +3841,7 @@
         <v>44677</v>
       </c>
       <c r="B210" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C210" t="s">
         <v>18</v>
@@ -3864,7 +3861,7 @@
         <v>4</v>
       </c>
       <c r="C211" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D211">
         <v>110</v>
@@ -3903,7 +3900,7 @@
         <v>8</v>
       </c>
       <c r="C214" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.35">
@@ -3914,7 +3911,7 @@
         <v>16</v>
       </c>
       <c r="C215" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D215">
         <v>-150</v>
@@ -3962,10 +3959,10 @@
         <v>44678</v>
       </c>
       <c r="B218" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C218" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D218">
         <v>-120</v>
@@ -3982,7 +3979,7 @@
         <v>19</v>
       </c>
       <c r="C219" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D219">
         <v>-170</v>
@@ -3996,10 +3993,10 @@
         <v>44678</v>
       </c>
       <c r="B220" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C220" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D220">
         <v>-120</v>
@@ -4016,7 +4013,7 @@
         <v>10</v>
       </c>
       <c r="C221" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D221">
         <v>-150</v>
@@ -4030,10 +4027,10 @@
         <v>44678</v>
       </c>
       <c r="B222" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C222" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D222">
         <v>-145</v>
@@ -4050,7 +4047,7 @@
         <v>11</v>
       </c>
       <c r="C223" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D223">
         <v>105</v>
@@ -4064,7 +4061,7 @@
         <v>44678</v>
       </c>
       <c r="B224" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C224" t="s">
         <v>12</v>
@@ -4081,7 +4078,7 @@
         <v>44678</v>
       </c>
       <c r="B225" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C225" t="s">
         <v>18</v>
@@ -4101,7 +4098,7 @@
         <v>8</v>
       </c>
       <c r="C226" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.35">
@@ -4129,7 +4126,7 @@
         <v>16</v>
       </c>
       <c r="C228" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D228">
         <v>-150</v>
@@ -4180,7 +4177,7 @@
         <v>9</v>
       </c>
       <c r="C231" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.35">
@@ -4191,7 +4188,7 @@
         <v>19</v>
       </c>
       <c r="C232" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D232">
         <v>-160</v>
@@ -4205,10 +4202,10 @@
         <v>44679</v>
       </c>
       <c r="B233" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C233" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D233">
         <v>-125</v>
@@ -4222,10 +4219,10 @@
         <v>44679</v>
       </c>
       <c r="B234" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C234" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D234">
         <v>-115</v>
@@ -4242,7 +4239,7 @@
         <v>11</v>
       </c>
       <c r="C235" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D235">
         <v>130</v>
@@ -4259,7 +4256,7 @@
         <v>10</v>
       </c>
       <c r="C236" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D236">
         <v>-135</v>
@@ -4273,10 +4270,10 @@
         <v>44679</v>
       </c>
       <c r="B237" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C237" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D237">
         <v>-120</v>
@@ -4290,7 +4287,7 @@
         <v>44679</v>
       </c>
       <c r="B238" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C238" t="s">
         <v>15</v>
@@ -4318,7 +4315,7 @@
         <v>44680</v>
       </c>
       <c r="B240" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C240" t="s">
         <v>4</v>
@@ -4355,7 +4352,7 @@
         <v>9</v>
       </c>
       <c r="C242" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.35">
@@ -4363,7 +4360,7 @@
         <v>44680</v>
       </c>
       <c r="B243" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C243" t="s">
         <v>16</v>
@@ -4397,7 +4394,7 @@
         <v>44680</v>
       </c>
       <c r="B245" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C245" t="s">
         <v>19</v>
@@ -4417,7 +4414,7 @@
         <v>11</v>
       </c>
       <c r="C246" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D246">
         <v>-110</v>
@@ -4431,10 +4428,10 @@
         <v>44680</v>
       </c>
       <c r="B247" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C247" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D247">
         <v>-115</v>
@@ -4451,7 +4448,7 @@
         <v>12</v>
       </c>
       <c r="C248" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D248">
         <v>-115</v>
@@ -4465,7 +4462,7 @@
         <v>44680</v>
       </c>
       <c r="B249" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C249" t="s">
         <v>10</v>
@@ -4482,10 +4479,10 @@
         <v>44680</v>
       </c>
       <c r="B250" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C250" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D250">
         <v>-125</v>
@@ -4499,7 +4496,7 @@
         <v>44680</v>
       </c>
       <c r="B251" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C251" t="s">
         <v>17</v>
@@ -4519,7 +4516,7 @@
         <v>7</v>
       </c>
       <c r="C252" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D252">
         <v>110</v>
@@ -4533,7 +4530,7 @@
         <v>44680</v>
       </c>
       <c r="B253" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C253" t="s">
         <v>15</v>
@@ -4581,7 +4578,7 @@
         <v>12</v>
       </c>
       <c r="C256" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D256">
         <v>-120</v>
@@ -4595,7 +4592,7 @@
         <v>44681</v>
       </c>
       <c r="B257" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C257" t="s">
         <v>19</v>
@@ -4612,10 +4609,10 @@
         <v>44681</v>
       </c>
       <c r="B258" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C258" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D258">
         <v>105</v>
@@ -4629,7 +4626,7 @@
         <v>44681</v>
       </c>
       <c r="B259" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C259" t="s">
         <v>11</v>
@@ -4646,10 +4643,10 @@
         <v>44681</v>
       </c>
       <c r="B260" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C260" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D260">
         <v>130</v>
@@ -4666,7 +4663,7 @@
         <v>10</v>
       </c>
       <c r="C261" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D261">
         <v>-130</v>
@@ -4713,7 +4710,7 @@
         <v>44684</v>
       </c>
       <c r="B265" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C265" t="s">
         <v>2</v>
@@ -4764,7 +4761,7 @@
         <v>44684</v>
       </c>
       <c r="B268" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C268" t="s">
         <v>19</v>
@@ -4781,10 +4778,10 @@
         <v>44684</v>
       </c>
       <c r="B269" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C269" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D269">
         <v>-110</v>
@@ -4801,7 +4798,7 @@
         <v>12</v>
       </c>
       <c r="C270" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D270">
         <v>105</v>
@@ -4815,7 +4812,7 @@
         <v>44684</v>
       </c>
       <c r="B271" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C271" t="s">
         <v>11</v>
@@ -4832,10 +4829,10 @@
         <v>44684</v>
       </c>
       <c r="B272" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C272" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D272">
         <v>115</v>
@@ -4852,7 +4849,7 @@
         <v>8</v>
       </c>
       <c r="C273" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.35">
@@ -4860,10 +4857,10 @@
         <v>44684</v>
       </c>
       <c r="B274" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C274" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D274">
         <v>-130</v>
@@ -4880,7 +4877,7 @@
         <v>6</v>
       </c>
       <c r="C275" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D275">
         <v>-125</v>
@@ -4894,7 +4891,7 @@
         <v>44684</v>
       </c>
       <c r="B276" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C276" t="s">
         <v>3</v>
@@ -4911,7 +4908,7 @@
         <v>44684</v>
       </c>
       <c r="B277" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C277" t="s">
         <v>10</v>
@@ -4956,7 +4953,7 @@
         <v>44685</v>
       </c>
       <c r="B280" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C280" t="s">
         <v>2</v>
@@ -4990,7 +4987,7 @@
         <v>44685</v>
       </c>
       <c r="B282" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C282" t="s">
         <v>11</v>
@@ -5007,10 +5004,10 @@
         <v>44685</v>
       </c>
       <c r="B283" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C283" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D283">
         <v>110</v>
@@ -5024,7 +5021,7 @@
         <v>44685</v>
       </c>
       <c r="B284" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C284" t="s">
         <v>19</v>
@@ -5041,10 +5038,10 @@
         <v>44685</v>
       </c>
       <c r="B285" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C285" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D285">
         <v>120</v>
@@ -5061,7 +5058,7 @@
         <v>12</v>
       </c>
       <c r="C286" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D286">
         <v>-120</v>
@@ -5078,7 +5075,7 @@
         <v>6</v>
       </c>
       <c r="C287" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.35">
@@ -5089,7 +5086,7 @@
         <v>8</v>
       </c>
       <c r="C288" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.35">
@@ -5097,10 +5094,10 @@
         <v>44685</v>
       </c>
       <c r="B289" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C289" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D289">
         <v>-135</v>
@@ -5114,7 +5111,7 @@
         <v>44685</v>
       </c>
       <c r="B290" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C290" t="s">
         <v>10</v>
@@ -5131,7 +5128,7 @@
         <v>44685</v>
       </c>
       <c r="B291" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C291" t="s">
         <v>3</v>
@@ -5151,7 +5148,7 @@
         <v>6</v>
       </c>
       <c r="C292" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.35">
@@ -5162,7 +5159,7 @@
         <v>8</v>
       </c>
       <c r="C293" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.35">
@@ -5170,7 +5167,7 @@
         <v>44686</v>
       </c>
       <c r="B294" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C294" t="s">
         <v>2</v>
@@ -5207,7 +5204,7 @@
         <v>4</v>
       </c>
       <c r="C296" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D296">
         <v>-130</v>
@@ -5235,7 +5232,7 @@
         <v>12</v>
       </c>
       <c r="C298" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D298">
         <v>105</v>
@@ -5249,10 +5246,10 @@
         <v>44686</v>
       </c>
       <c r="B299" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C299" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D299">
         <v>120</v>
@@ -5266,7 +5263,7 @@
         <v>44686</v>
       </c>
       <c r="B300" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C300" t="s">
         <v>19</v>
@@ -5283,7 +5280,7 @@
         <v>44686</v>
       </c>
       <c r="B301" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C301" t="s">
         <v>11</v>
@@ -5300,10 +5297,10 @@
         <v>44686</v>
       </c>
       <c r="B302" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C302" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D302">
         <v>110</v>
@@ -5320,7 +5317,7 @@
         <v>6</v>
       </c>
       <c r="C303" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D303">
         <v>105</v>
@@ -5373,7 +5370,7 @@
         <v>44687</v>
       </c>
       <c r="B307" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C307" t="s">
         <v>18</v>
@@ -5407,10 +5404,10 @@
         <v>44687</v>
       </c>
       <c r="B309" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C309" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D309">
         <v>-135</v>
@@ -5424,10 +5421,10 @@
         <v>44687</v>
       </c>
       <c r="B310" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C310" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D310">
         <v>125</v>
@@ -5441,7 +5438,7 @@
         <v>44687</v>
       </c>
       <c r="B311" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C311" t="s">
         <v>11</v>
@@ -5458,10 +5455,10 @@
         <v>44687</v>
       </c>
       <c r="B312" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C312" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.35">
@@ -5469,10 +5466,10 @@
         <v>44687</v>
       </c>
       <c r="B313" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C313" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D313">
         <v>-115</v>
@@ -5489,7 +5486,7 @@
         <v>6</v>
       </c>
       <c r="C314" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D314">
         <v>105</v>
@@ -5517,7 +5514,7 @@
         <v>4</v>
       </c>
       <c r="C316" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D316">
         <v>125</v>
@@ -5534,7 +5531,7 @@
         <v>6</v>
       </c>
       <c r="C317" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.35">
@@ -5542,7 +5539,7 @@
         <v>44688</v>
       </c>
       <c r="B318" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C318" t="s">
         <v>18</v>
@@ -5598,10 +5595,10 @@
         <v>44688</v>
       </c>
       <c r="B322" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C322" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D322">
         <v>-150</v>
@@ -5615,7 +5612,7 @@
         <v>44688</v>
       </c>
       <c r="B323" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C323" t="s">
         <v>11</v>
@@ -5632,10 +5629,10 @@
         <v>44688</v>
       </c>
       <c r="B324" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C324" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D324">
         <v>115</v>
@@ -5649,10 +5646,10 @@
         <v>44688</v>
       </c>
       <c r="B325" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C325" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.35">
@@ -5677,10 +5674,10 @@
         <v>44688</v>
       </c>
       <c r="B327" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C327" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D327">
         <v>115</v>
@@ -5722,10 +5719,10 @@
         <v>44688</v>
       </c>
       <c r="B330" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C330" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D330">
         <v>125</v>
@@ -5759,7 +5756,7 @@
         <v>6</v>
       </c>
       <c r="C332" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D332">
         <v>-120</v>
@@ -5773,7 +5770,7 @@
         <v>44689</v>
       </c>
       <c r="B333" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C333" t="s">
         <v>18</v>
@@ -5846,10 +5843,10 @@
         <v>44689</v>
       </c>
       <c r="B338" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C338" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D338">
         <v>-160</v>
@@ -5863,10 +5860,10 @@
         <v>44689</v>
       </c>
       <c r="B339" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C339" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D339">
         <v>150</v>
@@ -5880,7 +5877,7 @@
         <v>44689</v>
       </c>
       <c r="B340" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C340" t="s">
         <v>11</v>
@@ -5897,10 +5894,10 @@
         <v>44689</v>
       </c>
       <c r="B341" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C341" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D341">
         <v>-135</v>
@@ -5914,10 +5911,10 @@
         <v>44689</v>
       </c>
       <c r="B342" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C342" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D342">
         <v>-110</v>
@@ -5948,10 +5945,10 @@
         <v>44689</v>
       </c>
       <c r="B344" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C344" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.35">
@@ -5973,7 +5970,7 @@
         <v>4</v>
       </c>
       <c r="C346" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.35">
@@ -6001,7 +5998,7 @@
         <v>2</v>
       </c>
       <c r="C348" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D348">
         <v>125</v>
@@ -6054,10 +6051,10 @@
         <v>44690</v>
       </c>
       <c r="B352" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C352" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D352">
         <v>-110</v>
@@ -6071,10 +6068,10 @@
         <v>44690</v>
       </c>
       <c r="B353" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C353" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D353">
         <v>-140</v>
@@ -6088,7 +6085,7 @@
         <v>44690</v>
       </c>
       <c r="B354" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C354" t="s">
         <v>12</v>
@@ -6105,10 +6102,10 @@
         <v>44690</v>
       </c>
       <c r="B355" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C355" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D355">
         <v>-105</v>
@@ -6142,7 +6139,7 @@
         <v>2</v>
       </c>
       <c r="C357" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D357">
         <v>145</v>
@@ -6195,10 +6192,10 @@
         <v>44691</v>
       </c>
       <c r="B361" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C361" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D361">
         <v>-105</v>
@@ -6212,10 +6209,10 @@
         <v>44691</v>
       </c>
       <c r="B362" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C362" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.35">
@@ -6223,10 +6220,10 @@
         <v>44691</v>
       </c>
       <c r="B363" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C363" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D363">
         <v>-135</v>
@@ -6243,7 +6240,7 @@
         <v>11</v>
       </c>
       <c r="C364" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D364">
         <v>125</v>
@@ -6260,7 +6257,7 @@
         <v>10</v>
       </c>
       <c r="C365" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D365">
         <v>-120</v>
@@ -6274,10 +6271,10 @@
         <v>44691</v>
       </c>
       <c r="B366" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C366" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D366">
         <v>-135</v>
@@ -6291,7 +6288,7 @@
         <v>44691</v>
       </c>
       <c r="B367" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C367" t="s">
         <v>12</v>
@@ -6308,7 +6305,7 @@
         <v>44691</v>
       </c>
       <c r="B368" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C368" t="s">
         <v>7</v>
@@ -6325,10 +6322,10 @@
         <v>44691</v>
       </c>
       <c r="B369" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C369" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D369">
         <v>110</v>
@@ -6362,7 +6359,7 @@
         <v>2</v>
       </c>
       <c r="C371" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D371">
         <v>150</v>
@@ -6432,10 +6429,10 @@
         <v>44692</v>
       </c>
       <c r="B376" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C376" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D376">
         <v>-115</v>
@@ -6449,10 +6446,10 @@
         <v>44692</v>
       </c>
       <c r="B377" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C377" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D377">
         <v>-115</v>
@@ -6466,7 +6463,7 @@
         <v>44692</v>
       </c>
       <c r="B378" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C378" t="s">
         <v>12</v>
@@ -6483,10 +6480,10 @@
         <v>44692</v>
       </c>
       <c r="B379" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C379" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D379">
         <v>-110</v>
@@ -6503,7 +6500,7 @@
         <v>11</v>
       </c>
       <c r="C380" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D380">
         <v>105</v>
@@ -6517,10 +6514,10 @@
         <v>44692</v>
       </c>
       <c r="B381" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C381" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D381">
         <v>-120</v>
@@ -6534,7 +6531,7 @@
         <v>44692</v>
       </c>
       <c r="B382" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C382" t="s">
         <v>7</v>
@@ -6554,7 +6551,7 @@
         <v>19</v>
       </c>
       <c r="C383" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D383">
         <v>-155</v>
@@ -6568,7 +6565,7 @@
         <v>44693</v>
       </c>
       <c r="B384" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C384" t="s">
         <v>15</v>
@@ -6588,7 +6585,7 @@
         <v>10</v>
       </c>
       <c r="C385" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D385">
         <v>-125</v>
@@ -6602,16 +6599,259 @@
         <v>44693</v>
       </c>
       <c r="B386" t="s">
+        <v>27</v>
+      </c>
+      <c r="C386" t="s">
         <v>28</v>
-      </c>
-      <c r="C386" t="s">
-        <v>29</v>
       </c>
       <c r="D386">
         <v>-135</v>
       </c>
       <c r="E386">
         <v>100</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A387" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B387" t="s">
+        <v>32</v>
+      </c>
+      <c r="C387" t="s">
+        <v>6</v>
+      </c>
+      <c r="D387">
+        <v>-105</v>
+      </c>
+      <c r="E387">
+        <v>-135</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A388" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B388" t="s">
+        <v>2</v>
+      </c>
+      <c r="C388" t="s">
+        <v>17</v>
+      </c>
+      <c r="D388">
+        <v>125</v>
+      </c>
+      <c r="E388">
+        <v>-165</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A389" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B389" t="s">
+        <v>8</v>
+      </c>
+      <c r="C389" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A390" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B390" t="s">
+        <v>18</v>
+      </c>
+      <c r="C390" t="s">
+        <v>34</v>
+      </c>
+      <c r="D390">
+        <v>105</v>
+      </c>
+      <c r="E390">
+        <v>-145</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A391" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B391" t="s">
+        <v>3</v>
+      </c>
+      <c r="C391" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A392" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B392" t="s">
+        <v>31</v>
+      </c>
+      <c r="C392" t="s">
+        <v>15</v>
+      </c>
+      <c r="D392">
+        <v>-160</v>
+      </c>
+      <c r="E392">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A393" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B393" t="s">
+        <v>19</v>
+      </c>
+      <c r="C393" t="s">
+        <v>29</v>
+      </c>
+      <c r="D393">
+        <v>-125</v>
+      </c>
+      <c r="E393">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A394" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B394" t="s">
+        <v>21</v>
+      </c>
+      <c r="C394" t="s">
+        <v>30</v>
+      </c>
+      <c r="D394">
+        <v>110</v>
+      </c>
+      <c r="E394">
+        <v>-145</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A395" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B395" t="s">
+        <v>26</v>
+      </c>
+      <c r="C395" t="s">
+        <v>20</v>
+      </c>
+      <c r="D395">
+        <v>-105</v>
+      </c>
+      <c r="E395">
+        <v>-125</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A396" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B396" t="s">
+        <v>33</v>
+      </c>
+      <c r="C396" t="s">
+        <v>24</v>
+      </c>
+      <c r="D396">
+        <v>-130</v>
+      </c>
+      <c r="E396">
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A397" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B397" t="s">
+        <v>27</v>
+      </c>
+      <c r="C397" t="s">
+        <v>28</v>
+      </c>
+      <c r="D397">
+        <v>145</v>
+      </c>
+      <c r="E397">
+        <v>-190</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A398" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B398" t="s">
+        <v>12</v>
+      </c>
+      <c r="C398" t="s">
+        <v>22</v>
+      </c>
+      <c r="D398">
+        <v>125</v>
+      </c>
+      <c r="E398">
+        <v>-165</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A399" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B399" t="s">
+        <v>11</v>
+      </c>
+      <c r="C399" t="s">
+        <v>5</v>
+      </c>
+      <c r="D399">
+        <v>120</v>
+      </c>
+      <c r="E399">
+        <v>-160</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A400" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B400" t="s">
+        <v>23</v>
+      </c>
+      <c r="C400" t="s">
+        <v>4</v>
+      </c>
+      <c r="D400">
+        <v>-160</v>
+      </c>
+      <c r="E400">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A401" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B401" t="s">
+        <v>10</v>
+      </c>
+      <c r="C401" t="s">
+        <v>16</v>
+      </c>
+      <c r="D401">
+        <v>-125</v>
+      </c>
+      <c r="E401">
+        <v>-110</v>
       </c>
     </row>
   </sheetData>
